--- a/capiq_data/in_process_data/IQ291703.xlsx
+++ b/capiq_data/in_process_data/IQ291703.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC197C6-77C6-4E20-B510-F3D969D1D688}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91575DD1-00F6-484F-AB91-58D3D903BA8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"089fa3ce-4099-454a-8e65-79f9cf26e73f"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"6e7bf2de-d18c-48ce-98cd-cdb6eb9dbdac"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>75.7</v>
+        <v>94.340999999999994</v>
       </c>
       <c r="D2">
-        <v>1441.5</v>
+        <v>1762.3710000000001</v>
       </c>
       <c r="E2">
-        <v>997.9</v>
+        <v>1183.3630000000001</v>
       </c>
       <c r="F2">
-        <v>537.6</v>
+        <v>461.33100000000002</v>
       </c>
       <c r="G2">
-        <v>2132</v>
+        <v>2880.3670000000002</v>
       </c>
       <c r="H2">
-        <v>6405.3</v>
+        <v>7261.8249999999998</v>
       </c>
       <c r="I2">
-        <v>472.5</v>
+        <v>342.40600000000001</v>
       </c>
       <c r="J2">
-        <v>2063.9</v>
+        <v>2819.55</v>
       </c>
       <c r="K2">
-        <v>135</v>
+        <v>23.492000000000001</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,37 +892,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1665.9</v>
+        <v>1550.826</v>
       </c>
       <c r="O2">
-        <v>4499.8</v>
+        <v>4811.3959999999997</v>
       </c>
       <c r="P2">
-        <v>2368.9</v>
+        <v>3046.7559999999999</v>
       </c>
       <c r="Q2">
-        <v>-13.9</v>
+        <v>1.0860000000000001</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>19400</v>
+        <v>48800</v>
       </c>
       <c r="T2">
-        <v>1905.5</v>
+        <v>2450.4290000000001</v>
       </c>
       <c r="U2">
-        <v>139.6</v>
+        <v>22.524999999999999</v>
       </c>
       <c r="V2">
-        <v>204.7</v>
+        <v>338.649</v>
       </c>
       <c r="W2">
-        <v>-14.6</v>
+        <v>-55.981000000000002</v>
       </c>
       <c r="X2">
-        <v>-167.7</v>
+        <v>275.26299999999998</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,81 +931,81 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>75.7</v>
+        <v>94.340999999999994</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>75.7</v>
+        <v>38.420999999999999</v>
       </c>
       <c r="D3">
-        <v>1274.2</v>
+        <v>1610.7360000000001</v>
       </c>
       <c r="E3">
-        <v>967.2</v>
+        <v>1131.5309999999999</v>
       </c>
       <c r="F3">
-        <v>484.9</v>
+        <v>391.77600000000001</v>
       </c>
       <c r="G3">
-        <v>2304.1999999999998</v>
+        <v>2872.8429999999998</v>
       </c>
       <c r="H3">
-        <v>6637.2</v>
+        <v>7168.1189999999997</v>
       </c>
       <c r="I3">
-        <v>548.9</v>
+        <v>366.47500000000002</v>
       </c>
       <c r="J3">
-        <v>1796.3</v>
+        <v>2818.2710000000002</v>
       </c>
       <c r="K3">
-        <v>325</v>
+        <v>13.843999999999999</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-3.6</v>
+        <v>-18.658999999999999</v>
       </c>
       <c r="N3">
-        <v>2005</v>
+        <v>1546.289</v>
       </c>
       <c r="O3">
-        <v>4598.5</v>
+        <v>4822.7219999999998</v>
       </c>
       <c r="P3">
-        <v>2532.4</v>
+        <v>3046.4090000000001</v>
       </c>
       <c r="Q3">
-        <v>0.1</v>
+        <v>-2.6520000000000001</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>2038.7</v>
+        <v>2345.3969999999999</v>
       </c>
       <c r="U3">
-        <v>139.69999999999999</v>
+        <v>19.873000000000001</v>
       </c>
       <c r="V3">
-        <v>-108.3</v>
+        <v>124.06399999999999</v>
       </c>
       <c r="W3">
-        <v>-14.7</v>
+        <v>-55.994</v>
       </c>
       <c r="X3">
-        <v>167.8</v>
+        <v>-54.793999999999997</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,42 +1014,42 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>75.7</v>
+        <v>38.420999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>146.69999999999999</v>
+        <v>72.007000000000005</v>
       </c>
       <c r="D4">
-        <v>1545.3</v>
+        <v>1724.653</v>
       </c>
       <c r="E4">
-        <v>1139.9000000000001</v>
+        <v>1246.645</v>
       </c>
       <c r="F4">
-        <v>584.4</v>
+        <v>453.53500000000003</v>
       </c>
       <c r="G4">
-        <v>2532.1999999999998</v>
+        <v>2936.018</v>
       </c>
       <c r="H4">
-        <v>6892.5</v>
+        <v>7200.69</v>
       </c>
       <c r="I4">
-        <v>659.1</v>
+        <v>429.13099999999997</v>
       </c>
       <c r="J4">
-        <v>1805.5</v>
+        <v>2715.5030000000002</v>
       </c>
       <c r="K4">
-        <v>313.89999999999998</v>
+        <v>25.581</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2123</v>
+        <v>1664.671</v>
       </c>
       <c r="O4">
-        <v>4707.8</v>
+        <v>4843.7259999999997</v>
       </c>
       <c r="P4">
-        <v>2528.1999999999998</v>
+        <v>2915.1239999999998</v>
       </c>
       <c r="Q4">
-        <v>3.9</v>
+        <v>-4.0830000000000002</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>2184.6999999999998</v>
+        <v>2356.9639999999999</v>
       </c>
       <c r="U4">
-        <v>143.6</v>
+        <v>15.79</v>
       </c>
       <c r="V4">
-        <v>92.8</v>
+        <v>235.69300000000001</v>
       </c>
       <c r="W4">
-        <v>-23.4</v>
+        <v>-55.996000000000002</v>
       </c>
       <c r="X4">
-        <v>-35.4</v>
+        <v>-187.06</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,42 +1097,42 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>146.69999999999999</v>
+        <v>72.007000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>83.471999999999994</v>
       </c>
       <c r="D5">
-        <v>1549.9</v>
+        <v>1767.8</v>
       </c>
       <c r="E5">
-        <v>985.9</v>
+        <v>1316.1389999999999</v>
       </c>
       <c r="F5">
-        <v>579.29999999999995</v>
+        <v>490.1</v>
       </c>
       <c r="G5">
-        <v>2288.9</v>
+        <v>2933.39</v>
       </c>
       <c r="H5">
-        <v>6211.8</v>
+        <v>7226.5450000000001</v>
       </c>
       <c r="I5">
-        <v>522.9</v>
+        <v>446.279</v>
       </c>
       <c r="J5">
-        <v>1811.3</v>
+        <v>1865.038</v>
       </c>
       <c r="K5">
-        <v>236.9</v>
+        <v>23.901</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,37 +1141,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1775.7</v>
+        <v>2485.9650000000001</v>
       </c>
       <c r="O5">
-        <v>4313</v>
+        <v>4808.7089999999998</v>
       </c>
       <c r="P5">
-        <v>2314.6</v>
+        <v>2804.3760000000002</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-6.4649999999999999</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1898.8</v>
+        <v>2417.8359999999998</v>
       </c>
       <c r="U5">
-        <v>138.9</v>
+        <v>9.2569999999999997</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>217.04300000000001</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>-56.01</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>-167.04599999999999</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,42 +1180,42 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>-177.6</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>80.400000000000006</v>
+        <v>70.7</v>
       </c>
       <c r="D6">
-        <v>1495.2</v>
+        <v>1806.1</v>
       </c>
       <c r="E6">
-        <v>1002</v>
+        <v>1298.2</v>
       </c>
       <c r="F6">
-        <v>556.6</v>
+        <v>535.4</v>
       </c>
       <c r="G6">
-        <v>2148</v>
+        <v>2850.7</v>
       </c>
       <c r="H6">
-        <v>6160.9</v>
+        <v>7266.1</v>
       </c>
       <c r="I6">
-        <v>468.5</v>
+        <v>501.3</v>
       </c>
       <c r="J6">
-        <v>1809.3</v>
+        <v>1865</v>
       </c>
       <c r="K6">
-        <v>103.6</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,120 +1224,120 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1660.9</v>
+        <v>2533.9</v>
       </c>
       <c r="O6">
-        <v>4308.3</v>
+        <v>4832</v>
       </c>
       <c r="P6">
-        <v>2176.8000000000002</v>
+        <v>2691.6</v>
       </c>
       <c r="Q6">
-        <v>31.3</v>
+        <v>-2.5</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>19900</v>
+        <v>49425</v>
       </c>
       <c r="T6">
-        <v>1852.6</v>
+        <v>2434.1</v>
       </c>
       <c r="U6">
-        <v>170.2</v>
+        <v>6.8</v>
       </c>
       <c r="V6">
-        <v>281.5</v>
+        <v>288.60000000000002</v>
       </c>
       <c r="W6">
-        <v>-23.3</v>
+        <v>-56</v>
       </c>
       <c r="X6">
-        <v>-182.4</v>
+        <v>-167</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AA6">
-        <v>80.400000000000006</v>
+        <v>70.7</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>79.3</v>
+        <v>-464</v>
       </c>
       <c r="D7">
-        <v>1250.5</v>
+        <v>1597</v>
       </c>
       <c r="E7">
-        <v>942.2</v>
+        <v>1191.346</v>
       </c>
       <c r="F7">
-        <v>488</v>
+        <v>419.1</v>
       </c>
       <c r="G7">
-        <v>2292</v>
+        <v>2776.86</v>
       </c>
       <c r="H7">
-        <v>6288.8</v>
+        <v>6610.268</v>
       </c>
       <c r="I7">
-        <v>527.4</v>
+        <v>525.83100000000002</v>
       </c>
       <c r="J7">
-        <v>1803.4</v>
+        <v>2065.174</v>
       </c>
       <c r="K7">
-        <v>496.9</v>
+        <v>29.7</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-250.3</v>
+        <v>-561.1</v>
       </c>
       <c r="N7">
-        <v>1727.9</v>
+        <v>2210.6320000000001</v>
       </c>
       <c r="O7">
-        <v>4338</v>
+        <v>4724.0730000000003</v>
       </c>
       <c r="P7">
-        <v>2313.1</v>
+        <v>2647.8739999999998</v>
       </c>
       <c r="Q7">
-        <v>19.899999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>1950.8</v>
+        <v>1886.1949999999999</v>
       </c>
       <c r="U7">
-        <v>190.1</v>
+        <v>10.159000000000001</v>
       </c>
       <c r="V7">
-        <v>-47.4</v>
+        <v>122.5</v>
       </c>
       <c r="W7">
-        <v>-24.2</v>
+        <v>-56</v>
       </c>
       <c r="X7">
-        <v>105.9</v>
+        <v>-98.2</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,42 +1346,42 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>79.3</v>
+        <v>-464</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>111.8</v>
+        <v>88.6</v>
       </c>
       <c r="D8">
-        <v>1425.3</v>
+        <v>1895</v>
       </c>
       <c r="E8">
-        <v>1105.7</v>
+        <v>1429.2149999999999</v>
       </c>
       <c r="F8">
-        <v>552.70000000000005</v>
+        <v>520.6</v>
       </c>
       <c r="G8">
-        <v>2658.7</v>
+        <v>3162.4490000000001</v>
       </c>
       <c r="H8">
-        <v>6590.8</v>
+        <v>7397.4639999999999</v>
       </c>
       <c r="I8">
-        <v>556.4</v>
+        <v>655.79200000000003</v>
       </c>
       <c r="J8">
-        <v>1372.4</v>
+        <v>2716.538</v>
       </c>
       <c r="K8">
-        <v>175.5</v>
+        <v>30.483000000000001</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,37 +1390,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2448.3000000000002</v>
+        <v>2169.777</v>
       </c>
       <c r="O8">
-        <v>4616.1000000000004</v>
+        <v>5369.1989999999996</v>
       </c>
       <c r="P8">
-        <v>2494.1999999999998</v>
+        <v>3047.1860000000001</v>
       </c>
       <c r="Q8">
-        <v>180.7</v>
+        <v>-0.1</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>1974.7</v>
+        <v>2028.2650000000001</v>
       </c>
       <c r="U8">
-        <v>370.8</v>
+        <v>10.068</v>
       </c>
       <c r="V8">
-        <v>103.1</v>
+        <v>176.2</v>
       </c>
       <c r="W8">
-        <v>-29.1</v>
+        <v>-56.1</v>
       </c>
       <c r="X8">
-        <v>121.9</v>
+        <v>125.3</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,42 +1429,42 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>111.8</v>
+        <v>88.6</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>76.2</v>
       </c>
       <c r="D9">
-        <v>1456.9</v>
+        <v>1948.3</v>
       </c>
       <c r="E9">
-        <v>1074.3</v>
+        <v>1363</v>
       </c>
       <c r="F9">
-        <v>559</v>
+        <v>550.29999999999995</v>
       </c>
       <c r="G9">
-        <v>2424.3000000000002</v>
+        <v>3093.4</v>
       </c>
       <c r="H9">
-        <v>6363.3</v>
+        <v>7398.1</v>
       </c>
       <c r="I9">
-        <v>530</v>
+        <v>684.9</v>
       </c>
       <c r="J9">
-        <v>1366.1</v>
+        <v>2490.1999999999998</v>
       </c>
       <c r="K9">
-        <v>291</v>
+        <v>29.6</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,37 +1473,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2146.1999999999998</v>
+        <v>2422.3000000000002</v>
       </c>
       <c r="O9">
-        <v>4296.5</v>
+        <v>5346.8</v>
       </c>
       <c r="P9">
-        <v>2164.8000000000002</v>
+        <v>2925.6</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>-3.4</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>2066.8000000000002</v>
+        <v>2051.3000000000002</v>
       </c>
       <c r="U9">
-        <v>250.1</v>
+        <v>6.7</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>270.5</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>-56.1</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>-191.7</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,42 +1512,42 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>108.3</v>
+        <v>76.2</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>101.9</v>
+        <v>95.8</v>
       </c>
       <c r="D10">
-        <v>1447.2</v>
+        <v>2013.6</v>
       </c>
       <c r="E10">
-        <v>1112.4000000000001</v>
+        <v>1377.7</v>
       </c>
       <c r="F10">
-        <v>536.4</v>
+        <v>569.70000000000005</v>
       </c>
       <c r="G10">
-        <v>2271.1</v>
+        <v>3080</v>
       </c>
       <c r="H10">
-        <v>6222</v>
+        <v>7404.4</v>
       </c>
       <c r="I10">
-        <v>527.4</v>
+        <v>686.6</v>
       </c>
       <c r="J10">
-        <v>1713.7</v>
+        <v>2372.1</v>
       </c>
       <c r="K10">
-        <v>210.7</v>
+        <v>25.2</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1570.8</v>
+        <v>2614.4</v>
       </c>
       <c r="O10">
-        <v>4221.8</v>
+        <v>5339.6</v>
       </c>
       <c r="P10">
-        <v>1925.6</v>
+        <v>2821.3</v>
       </c>
       <c r="Q10">
-        <v>-66.3</v>
+        <v>48.4</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>18300</v>
+        <v>47000</v>
       </c>
       <c r="T10">
-        <v>2000.2</v>
+        <v>2064.8000000000002</v>
       </c>
       <c r="U10">
-        <v>183.8</v>
+        <v>55.1</v>
       </c>
       <c r="V10">
-        <v>261.3</v>
+        <v>299.7</v>
       </c>
       <c r="W10">
-        <v>-43.5</v>
+        <v>-56.2</v>
       </c>
       <c r="X10">
-        <v>-304.3</v>
+        <v>-170.3</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,81 +1595,81 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>101.9</v>
+        <v>95.8</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>54.2</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>1240.8</v>
+        <v>1547.6</v>
       </c>
       <c r="E11">
-        <v>1021.3</v>
+        <v>1276.4000000000001</v>
       </c>
       <c r="F11">
-        <v>473.6</v>
+        <v>430.2</v>
       </c>
       <c r="G11">
-        <v>2356.6</v>
+        <v>3009.1</v>
       </c>
       <c r="H11">
-        <v>6197.2</v>
+        <v>7758.7</v>
       </c>
       <c r="I11">
-        <v>570.1</v>
+        <v>736.5</v>
       </c>
       <c r="J11">
-        <v>1710.4</v>
+        <v>2877.6</v>
       </c>
       <c r="K11">
-        <v>411.8</v>
+        <v>24.5</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>-312</v>
       </c>
       <c r="N11">
-        <v>1674.6</v>
+        <v>2278</v>
       </c>
       <c r="O11">
-        <v>4208.6000000000004</v>
+        <v>5535.4</v>
       </c>
       <c r="P11">
-        <v>2123.4</v>
+        <v>3130</v>
       </c>
       <c r="Q11">
-        <v>-9.6</v>
+        <v>-44.9</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>1988.6</v>
+        <v>2223.3000000000002</v>
       </c>
       <c r="U11">
-        <v>174.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="V11">
-        <v>-123.1</v>
+        <v>40.5</v>
       </c>
       <c r="W11">
-        <v>-44.5</v>
+        <v>-57.7</v>
       </c>
       <c r="X11">
-        <v>148.1</v>
+        <v>451.7</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,42 +1678,42 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>54.2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>109.8</v>
+        <v>73.8</v>
       </c>
       <c r="D12">
-        <v>1434.8</v>
+        <v>1795.3</v>
       </c>
       <c r="E12">
-        <v>1215.3</v>
+        <v>1455.1</v>
       </c>
       <c r="F12">
-        <v>557.1</v>
+        <v>525</v>
       </c>
       <c r="G12">
-        <v>2600.1999999999998</v>
+        <v>3279.6</v>
       </c>
       <c r="H12">
-        <v>6402.9</v>
+        <v>8127.6</v>
       </c>
       <c r="I12">
-        <v>658.1</v>
+        <v>863</v>
       </c>
       <c r="J12">
-        <v>1700.4</v>
+        <v>3047</v>
       </c>
       <c r="K12">
-        <v>412.4</v>
+        <v>37.4</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,37 +1722,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1841.4</v>
+        <v>2357.6999999999998</v>
       </c>
       <c r="O12">
-        <v>4362.3999999999996</v>
+        <v>5803.3</v>
       </c>
       <c r="P12">
-        <v>2113.6</v>
+        <v>3214.2</v>
       </c>
       <c r="Q12">
-        <v>-20.100000000000001</v>
+        <v>25.2</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>2040.5</v>
+        <v>2324.3000000000002</v>
       </c>
       <c r="U12">
-        <v>154.1</v>
+        <v>35.4</v>
       </c>
       <c r="V12">
-        <v>63.3</v>
+        <v>100.9</v>
       </c>
       <c r="W12">
-        <v>-43.6</v>
+        <v>-57.5</v>
       </c>
       <c r="X12">
-        <v>-57.6</v>
+        <v>22.6</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,42 +1761,42 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>109.8</v>
+        <v>73.8</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>193.3</v>
+        <v>75.2</v>
       </c>
       <c r="D13">
-        <v>1466.1</v>
+        <v>1729.1</v>
       </c>
       <c r="E13">
-        <v>408.7</v>
+        <v>1392.6</v>
       </c>
       <c r="F13">
-        <v>552.5</v>
+        <v>491.8</v>
       </c>
       <c r="G13">
-        <v>2384.1999999999998</v>
+        <v>3162.5</v>
       </c>
       <c r="H13">
-        <v>6152.9</v>
+        <v>7967.1</v>
       </c>
       <c r="I13">
-        <v>575.1</v>
+        <v>815.9</v>
       </c>
       <c r="J13">
-        <v>1700.3</v>
+        <v>3038.8</v>
       </c>
       <c r="K13">
-        <v>29.2</v>
+        <v>31.6</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,37 +1805,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1442.8</v>
+        <v>2197.3000000000002</v>
       </c>
       <c r="O13">
-        <v>3959.8</v>
+        <v>5640.8</v>
       </c>
       <c r="P13">
-        <v>1730.4</v>
+        <v>3101.2</v>
       </c>
       <c r="Q13">
-        <v>43.3</v>
+        <v>41.7</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>2193.1</v>
+        <v>2326.3000000000002</v>
       </c>
       <c r="U13">
-        <v>197.4</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="V13">
-        <v>360.8</v>
+        <v>279.10000000000002</v>
       </c>
       <c r="W13">
-        <v>-44</v>
+        <v>-57.9</v>
       </c>
       <c r="X13">
-        <v>-472.7</v>
+        <v>-177.5</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,42 +1844,42 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>193.3</v>
+        <v>75.2</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>117.3</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>1465.3</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>1105.0999999999999</v>
+        <v>1397.1</v>
       </c>
       <c r="F14">
-        <v>541.70000000000005</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>2285.6</v>
+        <v>3000.2</v>
       </c>
       <c r="H14">
-        <v>6069.7</v>
+        <v>7480.7</v>
       </c>
       <c r="I14">
-        <v>558.9</v>
+        <v>694.7</v>
       </c>
       <c r="J14">
-        <v>1697.1</v>
+        <v>2868.6</v>
       </c>
       <c r="K14">
-        <v>174</v>
+        <v>21.9</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,37 +1888,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1604.5</v>
+        <v>2022</v>
       </c>
       <c r="O14">
-        <v>3994.7</v>
+        <v>5464.4</v>
       </c>
       <c r="P14">
-        <v>1871.9</v>
+        <v>2904</v>
       </c>
       <c r="Q14">
-        <v>28.9</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>18300</v>
+        <v>40000</v>
       </c>
       <c r="T14">
-        <v>2075</v>
+        <v>2016.3</v>
       </c>
       <c r="U14">
-        <v>226.3</v>
+        <v>144.4</v>
       </c>
       <c r="V14">
-        <v>304.2</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>-42</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>-231.3</v>
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,81 +1927,81 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>117.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>52.9</v>
+        <v>-74.900000000000006</v>
       </c>
       <c r="D15">
-        <v>1214.3</v>
+        <v>1470.7</v>
       </c>
       <c r="E15">
-        <v>973.1</v>
+        <v>1253.2</v>
       </c>
       <c r="F15">
-        <v>457</v>
+        <v>401.8</v>
       </c>
       <c r="G15">
-        <v>2231.3000000000002</v>
+        <v>2817.1</v>
       </c>
       <c r="H15">
-        <v>5993.9</v>
+        <v>7209.4</v>
       </c>
       <c r="I15">
-        <v>542.79999999999995</v>
+        <v>663.5</v>
       </c>
       <c r="J15">
-        <v>1696.1</v>
+        <v>2871.3</v>
       </c>
       <c r="K15">
-        <v>318.7</v>
+        <v>12.7</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>-17.7</v>
       </c>
       <c r="N15">
-        <v>1552.8</v>
+        <v>1849.5</v>
       </c>
       <c r="O15">
-        <v>3920.4</v>
+        <v>5295.7</v>
       </c>
       <c r="P15">
-        <v>2015.6</v>
+        <v>2898.1</v>
       </c>
       <c r="Q15">
-        <v>-89.5</v>
+        <v>-92.5</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>2073.5</v>
+        <v>1913.7</v>
       </c>
       <c r="U15">
-        <v>136.80000000000001</v>
+        <v>51.9</v>
       </c>
       <c r="V15">
-        <v>-92.1</v>
+        <v>-6.7</v>
       </c>
       <c r="W15">
-        <v>-42.9</v>
+        <v>-57.7</v>
       </c>
       <c r="X15">
-        <v>73.900000000000006</v>
+        <v>-64.8</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,42 +2010,42 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>52.9</v>
+        <v>-74.8</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>150.6</v>
+        <v>61.1</v>
       </c>
       <c r="D16">
-        <v>1502.2</v>
+        <v>1667.2</v>
       </c>
       <c r="E16">
-        <v>437.8</v>
+        <v>1309.2</v>
       </c>
       <c r="F16">
-        <v>599.79999999999995</v>
+        <v>477.5</v>
       </c>
       <c r="G16">
-        <v>2458.6</v>
+        <v>2719.8</v>
       </c>
       <c r="H16">
-        <v>6218.1</v>
+        <v>6865.4</v>
       </c>
       <c r="I16">
-        <v>592.9</v>
+        <v>657.9</v>
       </c>
       <c r="J16">
-        <v>1445.8</v>
+        <v>2484</v>
       </c>
       <c r="K16">
-        <v>389.4</v>
+        <v>12.9</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,37 +2054,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1986.4</v>
+        <v>1901.7</v>
       </c>
       <c r="O16">
-        <v>4114.5</v>
+        <v>4965.1000000000004</v>
       </c>
       <c r="P16">
-        <v>2086.5</v>
+        <v>2670.8</v>
       </c>
       <c r="Q16">
-        <v>5.9</v>
+        <v>59.1</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>2103.6</v>
+        <v>1900.3</v>
       </c>
       <c r="U16">
-        <v>142.69999999999999</v>
+        <v>111</v>
       </c>
       <c r="V16">
-        <v>96.2</v>
+        <v>143.69999999999999</v>
       </c>
       <c r="W16">
-        <v>-46.9</v>
+        <v>-58</v>
       </c>
       <c r="X16">
-        <v>-70.599999999999994</v>
+        <v>-281.39999999999998</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,42 +2093,42 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>150.6</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>122.3</v>
+        <v>-226.5</v>
       </c>
       <c r="D17">
-        <v>1484.5</v>
+        <v>1621.3</v>
       </c>
       <c r="E17">
-        <v>433.4</v>
+        <v>1184.3</v>
       </c>
       <c r="F17">
-        <v>577.79999999999995</v>
+        <v>464.7</v>
       </c>
       <c r="G17">
-        <v>2377.4</v>
+        <v>2877.3</v>
       </c>
       <c r="H17">
-        <v>6349.2</v>
+        <v>6605.2</v>
       </c>
       <c r="I17">
-        <v>579.1</v>
+        <v>633.1</v>
       </c>
       <c r="J17">
-        <v>1441.9</v>
+        <v>2439.6</v>
       </c>
       <c r="K17">
-        <v>517</v>
+        <v>14</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,37 +2137,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2188.6999999999998</v>
+        <v>1953.9</v>
       </c>
       <c r="O17">
-        <v>4320.2</v>
+        <v>4978.5</v>
       </c>
       <c r="P17">
-        <v>2210</v>
+        <v>2668.6</v>
       </c>
       <c r="Q17">
-        <v>-10.1</v>
+        <v>243.5</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>2029</v>
+        <v>1626.7</v>
       </c>
       <c r="U17">
-        <v>132.6</v>
+        <v>354.5</v>
       </c>
       <c r="V17">
-        <v>339.2</v>
+        <v>284.8</v>
       </c>
       <c r="W17">
-        <v>-46.3</v>
+        <v>-57.5</v>
       </c>
       <c r="X17">
-        <v>-6.3</v>
+        <v>-56.2</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,42 +2176,42 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>122.3</v>
+        <v>-226.4</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>52</v>
+        <v>124.2</v>
       </c>
       <c r="D18">
-        <v>1526</v>
+        <v>1720.6</v>
       </c>
       <c r="E18">
-        <v>1248.2</v>
+        <v>1199.4000000000001</v>
       </c>
       <c r="F18">
-        <v>569</v>
+        <v>494.8</v>
       </c>
       <c r="G18">
-        <v>2292.1999999999998</v>
+        <v>3012.4</v>
       </c>
       <c r="H18">
-        <v>6564.3</v>
+        <v>6666.8</v>
       </c>
       <c r="I18">
-        <v>674.1</v>
+        <v>637.1</v>
       </c>
       <c r="J18">
-        <v>2096.3000000000002</v>
+        <v>2424.3000000000002</v>
       </c>
       <c r="K18">
-        <v>390.7</v>
+        <v>21.3</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,37 +2220,37 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1888.6</v>
+        <v>1871.3</v>
       </c>
       <c r="O18">
-        <v>4709.3999999999996</v>
+        <v>4902.6000000000004</v>
       </c>
       <c r="P18">
-        <v>2493.6999999999998</v>
+        <v>2631.2</v>
       </c>
       <c r="Q18">
-        <v>66.8</v>
+        <v>151.1</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>17400</v>
+        <v>31100</v>
       </c>
       <c r="T18">
-        <v>1854.9</v>
+        <v>1764.2</v>
       </c>
       <c r="U18">
-        <v>199.4</v>
+        <v>505.6</v>
       </c>
       <c r="V18">
-        <v>290.8</v>
+        <v>238.2</v>
       </c>
       <c r="W18">
-        <v>-46.4</v>
+        <v>-57.8</v>
       </c>
       <c r="X18">
-        <v>122</v>
+        <v>-91.7</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2139,81 +2259,81 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>52</v>
+        <v>124.2</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>54.1</v>
+        <v>36.6</v>
       </c>
       <c r="D19">
-        <v>1264</v>
+        <v>1262.5</v>
       </c>
       <c r="E19">
-        <v>367.6</v>
+        <v>1037.4000000000001</v>
       </c>
       <c r="F19">
-        <v>489.3</v>
+        <v>351.6</v>
       </c>
       <c r="G19">
-        <v>2423</v>
+        <v>2786.5</v>
       </c>
       <c r="H19">
-        <v>6604.6</v>
+        <v>6331.9</v>
       </c>
       <c r="I19">
-        <v>615.6</v>
+        <v>629.4</v>
       </c>
       <c r="J19">
-        <v>2099.3000000000002</v>
+        <v>2383.8000000000002</v>
       </c>
       <c r="K19">
-        <v>733.9</v>
+        <v>18.5</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>-31.1</v>
       </c>
       <c r="N19">
-        <v>2044.2</v>
+        <v>1631.1</v>
       </c>
       <c r="O19">
-        <v>4905.6000000000004</v>
+        <v>4598.7</v>
       </c>
       <c r="P19">
-        <v>2839.7</v>
+        <v>2597.6999999999998</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>-75.8</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1699</v>
+        <v>1733.2</v>
       </c>
       <c r="U19">
-        <v>215.4</v>
+        <v>429.8</v>
       </c>
       <c r="V19">
-        <v>-154.30000000000001</v>
+        <v>55.5</v>
       </c>
       <c r="W19">
-        <v>-53.2</v>
+        <v>-58</v>
       </c>
       <c r="X19">
-        <v>218.2</v>
+        <v>-87.2</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,42 +2342,42 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>54.1</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>148.5</v>
+        <v>66.2</v>
       </c>
       <c r="D20">
-        <v>1560.9</v>
+        <v>1435.1</v>
       </c>
       <c r="E20">
-        <v>462.6</v>
+        <v>1204.5</v>
       </c>
       <c r="F20">
-        <v>624.29999999999995</v>
+        <v>463.9</v>
       </c>
       <c r="G20">
-        <v>2753</v>
+        <v>2639.1</v>
       </c>
       <c r="H20">
-        <v>6958.8</v>
+        <v>6083.5</v>
       </c>
       <c r="I20">
-        <v>756.7</v>
+        <v>590.20000000000005</v>
       </c>
       <c r="J20">
-        <v>2098.3000000000002</v>
+        <v>2380.6</v>
       </c>
       <c r="K20">
-        <v>776.6</v>
+        <v>13</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,37 +2386,37 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2306.5</v>
+        <v>1455.1</v>
       </c>
       <c r="O20">
-        <v>5175.7</v>
+        <v>4378.5</v>
       </c>
       <c r="P20">
-        <v>2880.9</v>
+        <v>2419</v>
       </c>
       <c r="Q20">
-        <v>23.3</v>
+        <v>-217.6</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>1783.1</v>
+        <v>1705</v>
       </c>
       <c r="U20">
-        <v>238.7</v>
+        <v>212.2</v>
       </c>
       <c r="V20">
-        <v>102.5</v>
+        <v>36.4</v>
       </c>
       <c r="W20">
-        <v>-51.2</v>
+        <v>-57.8</v>
       </c>
       <c r="X20">
-        <v>-55.6</v>
+        <v>-232.6</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,42 +2425,42 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>148.5</v>
+        <v>66.2</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>134.19999999999999</v>
+        <v>71.5</v>
       </c>
       <c r="D21">
-        <v>1530</v>
+        <v>1436.6</v>
       </c>
       <c r="E21">
-        <v>426</v>
+        <v>1082.0999999999999</v>
       </c>
       <c r="F21">
-        <v>600.29999999999995</v>
+        <v>462.4</v>
       </c>
       <c r="G21">
-        <v>2586.4</v>
+        <v>2763.1</v>
       </c>
       <c r="H21">
-        <v>6793.9</v>
+        <v>6127</v>
       </c>
       <c r="I21">
-        <v>679.3</v>
+        <v>576.4</v>
       </c>
       <c r="J21">
-        <v>2103.3000000000002</v>
+        <v>2377.4</v>
       </c>
       <c r="K21">
-        <v>631.4</v>
+        <v>6.2</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,37 +2469,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2141.1999999999998</v>
+        <v>1492.9</v>
       </c>
       <c r="O21">
-        <v>5005.6000000000004</v>
+        <v>4407.8999999999996</v>
       </c>
       <c r="P21">
-        <v>2740.7</v>
+        <v>2409</v>
       </c>
       <c r="Q21">
-        <v>27.5</v>
+        <v>273.3</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>1788.3</v>
+        <v>1719.1</v>
       </c>
       <c r="U21">
-        <v>266.2</v>
+        <v>485.5</v>
       </c>
       <c r="V21">
-        <v>339.9</v>
+        <v>359.4</v>
       </c>
       <c r="W21">
-        <v>-51</v>
+        <v>-57.9</v>
       </c>
       <c r="X21">
-        <v>-232.2</v>
+        <v>-67.599999999999994</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,42 +2508,42 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>134.19999999999999</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1583</v>
       </c>
       <c r="E22">
-        <v>1250.7</v>
+        <v>1107.7</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>480.2</v>
       </c>
       <c r="G22">
-        <v>2493.5</v>
+        <v>2472.6999999999998</v>
       </c>
       <c r="H22">
-        <v>7259.5</v>
+        <v>6446.1</v>
       </c>
       <c r="I22">
-        <v>642.4</v>
+        <v>590.5</v>
       </c>
       <c r="J22">
-        <v>2677.7</v>
+        <v>2429.6999999999998</v>
       </c>
       <c r="K22">
-        <v>388.8</v>
+        <v>4</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,37 +2552,37 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1988.6</v>
+        <v>1797.4</v>
       </c>
       <c r="O22">
-        <v>5433.1</v>
+        <v>4802.8999999999996</v>
       </c>
       <c r="P22">
-        <v>3066.5</v>
+        <v>2596.5</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>-370</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>17200</v>
+        <v>27900</v>
       </c>
       <c r="T22">
-        <v>1826.4</v>
+        <v>1643.2</v>
       </c>
       <c r="U22">
-        <v>274.8</v>
+        <v>115.5</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>190.3</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>-57.8</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>130.19999999999999</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2471,81 +2591,81 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>40.5</v>
+        <v>54.8</v>
       </c>
       <c r="D23">
-        <v>1314.9</v>
+        <v>1342.6</v>
       </c>
       <c r="E23">
-        <v>391.7</v>
+        <v>1043.4000000000001</v>
       </c>
       <c r="F23">
-        <v>505.6</v>
+        <v>432.1</v>
       </c>
       <c r="G23">
-        <v>10488.9</v>
+        <v>2452.4</v>
       </c>
       <c r="H23">
-        <v>15332.8</v>
+        <v>6369.5</v>
       </c>
       <c r="I23">
-        <v>657.1</v>
+        <v>605.9</v>
       </c>
       <c r="J23">
-        <v>10619.4</v>
+        <v>2325.9</v>
       </c>
       <c r="K23">
-        <v>762.8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-1.9</v>
       </c>
       <c r="N23">
-        <v>2194.9</v>
+        <v>1776.3</v>
       </c>
       <c r="O23">
-        <v>13554.1</v>
+        <v>4711.3999999999996</v>
       </c>
       <c r="P23">
-        <v>11388.1</v>
+        <v>2739.6</v>
       </c>
       <c r="Q23">
-        <v>7906.1</v>
+        <v>60.6</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>1778.7</v>
+        <v>1658.1</v>
       </c>
       <c r="U23">
-        <v>8180.9</v>
+        <v>176.1</v>
       </c>
       <c r="V23">
-        <v>-261.39999999999998</v>
+        <v>-11.7</v>
       </c>
       <c r="W23">
-        <v>-53.3</v>
+        <v>-58.2</v>
       </c>
       <c r="X23">
-        <v>8238.6</v>
+        <v>90.2</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,42 +2674,42 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>40.5</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>135.19999999999999</v>
+        <v>119.5</v>
       </c>
       <c r="D24">
-        <v>3858.6</v>
+        <v>1634.1</v>
       </c>
       <c r="E24">
-        <v>1118.9000000000001</v>
+        <v>1157.5</v>
       </c>
       <c r="F24">
-        <v>1423.7</v>
+        <v>563</v>
       </c>
       <c r="G24">
-        <v>6819.2</v>
+        <v>2679.4</v>
       </c>
       <c r="H24">
-        <v>33955.300000000003</v>
+        <v>6535.7</v>
       </c>
       <c r="I24">
-        <v>1566.8</v>
+        <v>634.79999999999995</v>
       </c>
       <c r="J24">
-        <v>12071.6</v>
+        <v>2245.6</v>
       </c>
       <c r="K24">
-        <v>943</v>
+        <v>20.9</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,37 +2718,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>4185</v>
+        <v>1950.2</v>
       </c>
       <c r="O24">
-        <v>22612.2</v>
+        <v>4807.8</v>
       </c>
       <c r="P24">
-        <v>13014.6</v>
+        <v>2675.1</v>
       </c>
       <c r="Q24">
-        <v>-7553.6</v>
+        <v>-59.8</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>11343.1</v>
+        <v>1727.9</v>
       </c>
       <c r="U24">
-        <v>627.29999999999995</v>
+        <v>116.3</v>
       </c>
       <c r="V24">
-        <v>597.29999999999995</v>
+        <v>103.8</v>
       </c>
       <c r="W24">
-        <v>-91.7</v>
+        <v>-58.2</v>
       </c>
       <c r="X24">
-        <v>310.3</v>
+        <v>-119.1</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,42 +2757,42 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>135.19999999999999</v>
+        <v>119.5</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>186.5</v>
+        <v>108.5</v>
       </c>
       <c r="D25">
-        <v>3954.6</v>
+        <v>1586.1</v>
       </c>
       <c r="E25">
-        <v>956.7</v>
+        <v>1079.5</v>
       </c>
       <c r="F25">
-        <v>1419.8</v>
+        <v>535.20000000000005</v>
       </c>
       <c r="G25">
-        <v>7880.5</v>
+        <v>2704.2</v>
       </c>
       <c r="H25">
-        <v>34415.5</v>
+        <v>6513.1</v>
       </c>
       <c r="I25">
-        <v>1433.8</v>
+        <v>605.4</v>
       </c>
       <c r="J25">
-        <v>12075.3</v>
+        <v>2028.8</v>
       </c>
       <c r="K25">
-        <v>704.5</v>
+        <v>21.5</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,37 +2801,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>4066.5</v>
+        <v>2047.5</v>
       </c>
       <c r="O25">
-        <v>22953.200000000001</v>
+        <v>4691</v>
       </c>
       <c r="P25">
-        <v>12779.8</v>
+        <v>2456.1999999999998</v>
       </c>
       <c r="Q25">
-        <v>42.7</v>
+        <v>21.1</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>11462.3</v>
+        <v>1822.1</v>
       </c>
       <c r="U25">
-        <v>670</v>
+        <v>137.4</v>
       </c>
       <c r="V25">
-        <v>512.79999999999995</v>
+        <v>312.2</v>
       </c>
       <c r="W25">
-        <v>-91.9</v>
+        <v>-58.2</v>
       </c>
       <c r="X25">
-        <v>-317.5</v>
+        <v>-267.10000000000002</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,42 +2840,42 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>186.5</v>
+        <v>108.5</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>165.6</v>
+        <v>102.2</v>
       </c>
       <c r="D26">
-        <v>4135.8999999999996</v>
+        <v>1638.2</v>
       </c>
       <c r="E26">
-        <v>2746.9</v>
+        <v>1113.5999999999999</v>
       </c>
       <c r="F26">
-        <v>1531.7</v>
+        <v>539.70000000000005</v>
       </c>
       <c r="G26">
-        <v>7484.5</v>
+        <v>2476.9</v>
       </c>
       <c r="H26">
-        <v>33837.5</v>
+        <v>6310.5</v>
       </c>
       <c r="I26">
-        <v>1518.9</v>
+        <v>549.9</v>
       </c>
       <c r="J26">
-        <v>11290.9</v>
+        <v>1972.3</v>
       </c>
       <c r="K26">
-        <v>601.9</v>
+        <v>23.9</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,37 +2884,37 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>4292</v>
+        <v>1896.6</v>
       </c>
       <c r="O26">
-        <v>22453.1</v>
+        <v>4420.3</v>
       </c>
       <c r="P26">
-        <v>11892.8</v>
+        <v>2249.8000000000002</v>
       </c>
       <c r="Q26">
-        <v>-82.5</v>
+        <v>63.6</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>53400</v>
+        <v>23500</v>
       </c>
       <c r="T26">
-        <v>11384.4</v>
+        <v>1890.2</v>
       </c>
       <c r="U26">
-        <v>587.5</v>
+        <v>201</v>
       </c>
       <c r="V26">
-        <v>991.7</v>
+        <v>239.1</v>
       </c>
       <c r="W26">
-        <v>-91.7</v>
+        <v>-58.2</v>
       </c>
       <c r="X26">
-        <v>-902.9</v>
+        <v>-254.1</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,81 +2923,81 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>165.6</v>
+        <v>102.2</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>638.5</v>
+        <v>49.3</v>
       </c>
       <c r="D27">
-        <v>2090.6</v>
+        <v>1384.4</v>
       </c>
       <c r="E27">
-        <v>2559.6</v>
+        <v>979.3</v>
       </c>
       <c r="F27">
-        <v>708.2</v>
+        <v>474.7</v>
       </c>
       <c r="G27">
-        <v>6488.7</v>
+        <v>2354.9</v>
       </c>
       <c r="H27">
-        <v>33335.300000000003</v>
+        <v>6236.8</v>
       </c>
       <c r="I27">
-        <v>1396.9</v>
+        <v>555.1</v>
       </c>
       <c r="J27">
-        <v>10357.5</v>
+        <v>2320.8000000000002</v>
       </c>
       <c r="K27">
-        <v>852.5</v>
+        <v>21.6</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-972.3</v>
+        <v>-253</v>
       </c>
       <c r="N27">
-        <v>4318.2</v>
+        <v>1295.8</v>
       </c>
       <c r="O27">
-        <v>21305.5</v>
+        <v>4343.5</v>
       </c>
       <c r="P27">
-        <v>11210</v>
+        <v>2344.6</v>
       </c>
       <c r="Q27">
-        <v>100</v>
+        <v>16.8</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>12029.8</v>
+        <v>1893.3</v>
       </c>
       <c r="U27">
-        <v>687.5</v>
+        <v>217.8</v>
       </c>
       <c r="V27">
-        <v>-263.60000000000002</v>
+        <v>14.5</v>
       </c>
       <c r="W27">
-        <v>-92.9</v>
+        <v>-58.6</v>
       </c>
       <c r="X27">
-        <v>-859.6</v>
+        <v>49.8</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,42 +3006,42 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>638.5</v>
+        <v>49.3</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>142.19999999999999</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1693.1</v>
       </c>
       <c r="E28">
-        <v>2988.7</v>
+        <v>1215.3</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>605.6</v>
       </c>
       <c r="G28">
-        <v>7130.9</v>
+        <v>2587</v>
       </c>
       <c r="H28">
-        <v>33950</v>
+        <v>6503.6</v>
       </c>
       <c r="I28">
-        <v>1719</v>
+        <v>638.5</v>
       </c>
       <c r="J28">
-        <v>10172.799999999999</v>
+        <v>2232.1999999999998</v>
       </c>
       <c r="K28">
-        <v>1221</v>
+        <v>21.4</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,37 +3050,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>4791.3</v>
+        <v>1448.9</v>
       </c>
       <c r="O28">
-        <v>21671.8</v>
+        <v>4478.3</v>
       </c>
       <c r="P28">
-        <v>11393.8</v>
+        <v>2255.8000000000002</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>-55</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>12278.2</v>
+        <v>2025.3</v>
       </c>
       <c r="U28">
-        <v>780.2</v>
+        <v>162.80000000000001</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>158.30000000000001</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>-58.7</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>-142.1</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,42 +3089,42 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>142.19999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>234.4</v>
+        <v>170.2</v>
       </c>
       <c r="D29">
-        <v>2466.6</v>
+        <v>1687.3</v>
       </c>
       <c r="E29">
-        <v>2916</v>
+        <v>1127.0999999999999</v>
       </c>
       <c r="F29">
-        <v>864.9</v>
+        <v>601</v>
       </c>
       <c r="G29">
-        <v>6949.3</v>
+        <v>2570</v>
       </c>
       <c r="H29">
-        <v>33888</v>
+        <v>6591</v>
       </c>
       <c r="I29">
-        <v>1699</v>
+        <v>619.20000000000005</v>
       </c>
       <c r="J29">
-        <v>10184.4</v>
+        <v>1331.8</v>
       </c>
       <c r="K29">
-        <v>1291</v>
+        <v>20.5</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,37 +3133,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>4774.2</v>
+        <v>2299.3000000000002</v>
       </c>
       <c r="O29">
-        <v>21118</v>
+        <v>4427.3999999999996</v>
       </c>
       <c r="P29">
-        <v>11475.4</v>
+        <v>2127.5</v>
       </c>
       <c r="Q29">
-        <v>12.1</v>
+        <v>6.7</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>12770</v>
+        <v>2163.6</v>
       </c>
       <c r="U29">
-        <v>792.3</v>
+        <v>169.5</v>
       </c>
       <c r="V29">
-        <v>183</v>
+        <v>283.39999999999998</v>
       </c>
       <c r="W29">
-        <v>-112.8</v>
+        <v>-58.7</v>
       </c>
       <c r="X29">
-        <v>-208.2</v>
+        <v>-185.1</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,42 +3172,42 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>234.4</v>
+        <v>170.2</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>1652.9</v>
+        <v>105.4</v>
       </c>
       <c r="D30">
-        <v>2489.1999999999998</v>
+        <v>1642.5</v>
       </c>
       <c r="E30">
-        <v>1879.3</v>
+        <v>1166.4000000000001</v>
       </c>
       <c r="F30">
-        <v>813.8</v>
+        <v>575.9</v>
       </c>
       <c r="G30">
-        <v>10725.7</v>
+        <v>2651.7</v>
       </c>
       <c r="H30">
-        <v>33135.5</v>
+        <v>6682.9</v>
       </c>
       <c r="I30">
-        <v>1226.8</v>
+        <v>616.9</v>
       </c>
       <c r="J30">
-        <v>9889.2000000000007</v>
+        <v>1197.4000000000001</v>
       </c>
       <c r="K30">
-        <v>661.8</v>
+        <v>15.3</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,37 +3216,37 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>4907.7</v>
+        <v>2563.8000000000002</v>
       </c>
       <c r="O30">
-        <v>18954.2</v>
+        <v>4435.6000000000004</v>
       </c>
       <c r="P30">
-        <v>10551</v>
+        <v>2184.9</v>
       </c>
       <c r="Q30">
-        <v>-306.60000000000002</v>
+        <v>159.69999999999999</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>49000</v>
+        <v>22000</v>
       </c>
       <c r="T30">
-        <v>14181.3</v>
+        <v>2247.3000000000002</v>
       </c>
       <c r="U30">
-        <v>485.7</v>
+        <v>329.2</v>
       </c>
       <c r="V30">
-        <v>990</v>
+        <v>199.1</v>
       </c>
       <c r="W30">
-        <v>-111.5</v>
+        <v>-58.7</v>
       </c>
       <c r="X30">
-        <v>-1189.9000000000001</v>
+        <v>10.6</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3135,81 +3255,81 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>1652.9</v>
+        <v>105.4</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>53.3</v>
+        <v>56.9</v>
       </c>
       <c r="D31">
-        <v>1811.5</v>
+        <v>1433.7</v>
       </c>
       <c r="E31">
-        <v>2346</v>
+        <v>1029.5999999999999</v>
       </c>
       <c r="F31">
-        <v>605.29999999999995</v>
+        <v>490.5</v>
       </c>
       <c r="G31">
-        <v>8471.2999999999993</v>
+        <v>3103.1</v>
       </c>
       <c r="H31">
-        <v>33469.4</v>
+        <v>7205.8</v>
       </c>
       <c r="I31">
-        <v>1398.2</v>
+        <v>571.6</v>
       </c>
       <c r="J31">
-        <v>9623.5</v>
+        <v>1946.9</v>
       </c>
       <c r="K31">
-        <v>1532.6</v>
+        <v>11.4</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-0.7</v>
+        <v>-79.599999999999994</v>
       </c>
       <c r="N31">
-        <v>4917.8999999999996</v>
+        <v>2302.8000000000002</v>
       </c>
       <c r="O31">
-        <v>19302.099999999999</v>
+        <v>4955.8999999999996</v>
       </c>
       <c r="P31">
-        <v>11156.1</v>
+        <v>2858.6</v>
       </c>
       <c r="Q31">
-        <v>-26.7</v>
+        <v>422.9</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>14167.3</v>
+        <v>2249.9</v>
       </c>
       <c r="U31">
-        <v>459</v>
+        <v>752.1</v>
       </c>
       <c r="V31">
-        <v>-401.7</v>
+        <v>-123.2</v>
       </c>
       <c r="W31">
-        <v>-112.6</v>
+        <v>-58.8</v>
       </c>
       <c r="X31">
-        <v>474.7</v>
+        <v>607.9</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,42 +3338,42 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>53.3</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>131.69999999999999</v>
+        <v>92.5</v>
       </c>
       <c r="D32">
-        <v>2700.9</v>
+        <v>1825.1</v>
       </c>
       <c r="E32">
-        <v>1928.7</v>
+        <v>1312.7</v>
       </c>
       <c r="F32">
-        <v>934.6</v>
+        <v>623.20000000000005</v>
       </c>
       <c r="G32">
-        <v>13747.4</v>
+        <v>2912.1</v>
       </c>
       <c r="H32">
-        <v>32191.200000000001</v>
+        <v>7563.6</v>
       </c>
       <c r="I32">
-        <v>1017.3</v>
+        <v>656.8</v>
       </c>
       <c r="J32">
-        <v>9300.7000000000007</v>
+        <v>1959.8</v>
       </c>
       <c r="K32">
-        <v>1202.2</v>
+        <v>28</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,37 +3382,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>4342.8999999999996</v>
+        <v>2693.2</v>
       </c>
       <c r="O32">
-        <v>18200</v>
+        <v>5260.2</v>
       </c>
       <c r="P32">
-        <v>10502.9</v>
+        <v>3053.6</v>
       </c>
       <c r="Q32">
-        <v>1820.4</v>
+        <v>-540.70000000000005</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>13991.2</v>
+        <v>2303.4</v>
       </c>
       <c r="U32">
-        <v>2279.4</v>
+        <v>211.4</v>
       </c>
       <c r="V32">
-        <v>11.2</v>
+        <v>1.9</v>
       </c>
       <c r="W32">
-        <v>-112.3</v>
+        <v>-58.6</v>
       </c>
       <c r="X32">
-        <v>-737.6</v>
+        <v>112.9</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,42 +3421,42 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>131.69999999999999</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>-7311</v>
+        <v>55</v>
       </c>
       <c r="D33">
-        <v>2548.6999999999998</v>
+        <v>1760.3</v>
       </c>
       <c r="E33">
-        <v>2015.4</v>
+        <v>1144.8</v>
       </c>
       <c r="F33">
-        <v>915.4</v>
+        <v>574.70000000000005</v>
       </c>
       <c r="G33">
-        <v>12208.5</v>
+        <v>2678</v>
       </c>
       <c r="H33">
-        <v>22398.1</v>
+        <v>7258.3</v>
       </c>
       <c r="I33">
-        <v>1172</v>
+        <v>608.1</v>
       </c>
       <c r="J33">
-        <v>9296.7999999999993</v>
+        <v>2296.6999999999998</v>
       </c>
       <c r="K33">
-        <v>316.3</v>
+        <v>27.3</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,37 +3465,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>4096.7</v>
+        <v>2123.9</v>
       </c>
       <c r="O33">
-        <v>16371.9</v>
+        <v>5026.2</v>
       </c>
       <c r="P33">
-        <v>9613.1</v>
+        <v>2866.4</v>
       </c>
       <c r="Q33">
-        <v>-835.8</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>6026.2</v>
+        <v>2232.1</v>
       </c>
       <c r="U33">
-        <v>1443.6</v>
+        <v>220.6</v>
       </c>
       <c r="V33">
-        <v>572.1</v>
+        <v>364.3</v>
       </c>
       <c r="W33">
-        <v>-107.4</v>
+        <v>-58.7</v>
       </c>
       <c r="X33">
-        <v>-1505.1</v>
+        <v>-292.8</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,42 +3504,42 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>-7311</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>183.5</v>
+        <v>-256.7</v>
       </c>
       <c r="D34">
-        <v>3092.9</v>
+        <v>1451.5</v>
       </c>
       <c r="E34">
-        <v>2163.5</v>
+        <v>969.3</v>
       </c>
       <c r="F34">
-        <v>1062.4000000000001</v>
+        <v>434.8</v>
       </c>
       <c r="G34">
-        <v>5958.5</v>
+        <v>2393.8000000000002</v>
       </c>
       <c r="H34">
-        <v>17722.400000000001</v>
+        <v>6792.5</v>
       </c>
       <c r="I34">
-        <v>1191.5999999999999</v>
+        <v>535.5</v>
       </c>
       <c r="J34">
-        <v>6696.3</v>
+        <v>2118.3000000000002</v>
       </c>
       <c r="K34">
-        <v>318.7</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,37 +3548,37 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>3303.5</v>
+        <v>2234.1</v>
       </c>
       <c r="O34">
-        <v>12469.2</v>
+        <v>5203.8999999999996</v>
       </c>
       <c r="P34">
-        <v>7015</v>
+        <v>2879.3</v>
       </c>
       <c r="Q34">
-        <v>-947.9</v>
+        <v>54.8</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>37000</v>
+        <v>20400</v>
       </c>
       <c r="T34">
-        <v>5253.2</v>
+        <v>1588.6</v>
       </c>
       <c r="U34">
-        <v>495.7</v>
+        <v>275.39999999999998</v>
       </c>
       <c r="V34">
-        <v>498.4</v>
+        <v>211.9</v>
       </c>
       <c r="W34">
-        <v>-102.3</v>
+        <v>-58.4</v>
       </c>
       <c r="X34">
-        <v>-3686.5</v>
+        <v>-122</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3467,125 +3587,125 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>183.5</v>
+        <v>-256.7</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>-151</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="D35">
-        <v>2042</v>
+        <v>1203.9000000000001</v>
       </c>
       <c r="E35">
-        <v>1606.1</v>
+        <v>874.7</v>
       </c>
       <c r="F35">
-        <v>655</v>
+        <v>422.8</v>
       </c>
       <c r="G35">
-        <v>7516.1</v>
+        <v>2808.1</v>
       </c>
       <c r="H35">
-        <v>18106.099999999999</v>
+        <v>7137.4</v>
       </c>
       <c r="I35">
-        <v>934.9</v>
+        <v>444.4</v>
       </c>
       <c r="J35">
-        <v>6682.7</v>
+        <v>2679</v>
       </c>
       <c r="K35">
-        <v>570.20000000000005</v>
+        <v>8.1</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-273</v>
+        <v>-132.5</v>
       </c>
       <c r="N35">
-        <v>3551.6</v>
+        <v>2000.2</v>
       </c>
       <c r="O35">
-        <v>13123</v>
+        <v>5519.9</v>
       </c>
       <c r="P35">
-        <v>7953.6</v>
+        <v>3439.4</v>
       </c>
       <c r="Q35">
-        <v>-132</v>
+        <v>480.5</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>19300</v>
       </c>
       <c r="T35">
-        <v>4983.1000000000004</v>
+        <v>1617.5</v>
       </c>
       <c r="U35">
-        <v>364.1</v>
+        <v>755.9</v>
       </c>
       <c r="V35">
-        <v>-200</v>
+        <v>-11.2</v>
       </c>
       <c r="W35">
-        <v>-98</v>
+        <v>-29.4</v>
       </c>
       <c r="X35">
-        <v>145</v>
+        <v>527.6</v>
       </c>
       <c r="Y35">
-        <v>559.5</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>-151</v>
+        <v>33.700000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>90</v>
+        <v>105.7</v>
       </c>
       <c r="D36">
-        <v>2480</v>
+        <v>1504.3</v>
       </c>
       <c r="E36">
-        <v>1769</v>
+        <v>1096.2</v>
       </c>
       <c r="F36">
-        <v>865</v>
+        <v>558.29999999999995</v>
       </c>
       <c r="G36">
-        <v>7061.7</v>
+        <v>2602.8000000000002</v>
       </c>
       <c r="H36">
-        <v>17666.3</v>
+        <v>6916.2</v>
       </c>
       <c r="I36">
-        <v>1083.8</v>
+        <v>460.8</v>
       </c>
       <c r="J36">
-        <v>6696.4</v>
+        <v>2393.5</v>
       </c>
       <c r="K36">
-        <v>39.9</v>
+        <v>7.1</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>3135.8</v>
+        <v>1866</v>
       </c>
       <c r="O36">
-        <v>12661.7</v>
+        <v>5133.3999999999996</v>
       </c>
       <c r="P36">
-        <v>7452.2</v>
+        <v>3027.7</v>
       </c>
       <c r="Q36">
-        <v>261</v>
+        <v>-337.8</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>5004.6000000000004</v>
+        <v>1782.8</v>
       </c>
       <c r="U36">
-        <v>624.5</v>
+        <v>418.1</v>
       </c>
       <c r="V36">
-        <v>191</v>
+        <v>99.2</v>
       </c>
       <c r="W36">
-        <v>-97</v>
+        <v>-14</v>
       </c>
       <c r="X36">
-        <v>-631</v>
+        <v>-397.8</v>
       </c>
       <c r="Y36">
-        <v>584.1</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>90</v>
+        <v>105.7</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>-626</v>
+        <v>85.5</v>
       </c>
       <c r="D37">
-        <v>2569</v>
+        <v>1449</v>
       </c>
       <c r="E37">
-        <v>1872.8</v>
+        <v>943.7</v>
       </c>
       <c r="F37">
-        <v>847</v>
+        <v>542.6</v>
       </c>
       <c r="G37">
-        <v>5468.4</v>
+        <v>2262.4</v>
       </c>
       <c r="H37">
-        <v>16010.2</v>
+        <v>6623.3</v>
       </c>
       <c r="I37">
-        <v>1118.5</v>
+        <v>454.1</v>
       </c>
       <c r="J37">
-        <v>5681.3</v>
+        <v>2033.9</v>
       </c>
       <c r="K37">
-        <v>630.4</v>
+        <v>74</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>3684.2</v>
+        <v>1931.4</v>
       </c>
       <c r="O37">
-        <v>11841.7</v>
+        <v>4781.8999999999996</v>
       </c>
       <c r="P37">
-        <v>7012.9</v>
+        <v>2698.9</v>
       </c>
       <c r="Q37">
-        <v>-159</v>
+        <v>-105.1</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>4168.5</v>
+        <v>1841.4</v>
       </c>
       <c r="U37">
-        <v>465.4</v>
+        <v>313</v>
       </c>
       <c r="V37">
-        <v>433</v>
+        <v>327.7</v>
       </c>
       <c r="W37">
-        <v>-98</v>
+        <v>-13.9</v>
       </c>
       <c r="X37">
-        <v>-538</v>
+        <v>-398.8</v>
       </c>
       <c r="Y37">
-        <v>565.70000000000005</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>-626</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>794</v>
+        <v>60.6</v>
       </c>
       <c r="D38">
-        <v>2624</v>
+        <v>1420.4</v>
       </c>
       <c r="E38">
-        <v>1842</v>
+        <v>894.1</v>
       </c>
       <c r="F38">
-        <v>868</v>
+        <v>525.79999999999995</v>
       </c>
       <c r="G38">
-        <v>4110</v>
+        <v>2182.1</v>
       </c>
       <c r="H38">
-        <v>15642</v>
+        <v>6423.9</v>
       </c>
       <c r="I38">
-        <v>1102</v>
+        <v>433.6</v>
       </c>
       <c r="J38">
-        <v>5381</v>
+        <v>2017.8</v>
       </c>
       <c r="K38">
-        <v>25</v>
+        <v>0.6</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2978</v>
+        <v>1759.5</v>
       </c>
       <c r="O38">
-        <v>10646</v>
+        <v>4641.7</v>
       </c>
       <c r="P38">
-        <v>6397</v>
+        <v>2511.3000000000002</v>
       </c>
       <c r="Q38">
-        <v>-95</v>
+        <v>-34.700000000000003</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>30000</v>
+        <v>19500</v>
       </c>
       <c r="T38">
-        <v>4996</v>
+        <v>1782.2</v>
       </c>
       <c r="U38">
-        <v>349</v>
+        <v>278.3</v>
       </c>
       <c r="V38">
-        <v>620</v>
+        <v>187.1</v>
       </c>
       <c r="W38">
-        <v>-98</v>
+        <v>-14.1</v>
       </c>
       <c r="X38">
-        <v>-880</v>
+        <v>-158</v>
       </c>
       <c r="Y38">
-        <v>551</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>794</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>-1279</v>
+        <v>58.4</v>
       </c>
       <c r="D39">
-        <v>1886</v>
+        <v>1306.4000000000001</v>
       </c>
       <c r="E39">
-        <v>1398</v>
+        <v>915.8</v>
       </c>
       <c r="F39">
-        <v>617</v>
+        <v>471.7</v>
       </c>
       <c r="G39">
-        <v>3917</v>
+        <v>2236.8000000000002</v>
       </c>
       <c r="H39">
-        <v>13903</v>
+        <v>6416.1</v>
       </c>
       <c r="I39">
-        <v>1036</v>
+        <v>501.3</v>
       </c>
       <c r="J39">
-        <v>5366</v>
+        <v>2013.4</v>
       </c>
       <c r="K39">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-16</v>
+        <v>-2.9</v>
       </c>
       <c r="N39">
-        <v>2951</v>
+        <v>1704.1</v>
       </c>
       <c r="O39">
-        <v>10424</v>
+        <v>4600.5</v>
       </c>
       <c r="P39">
-        <v>6643</v>
+        <v>2508.6999999999998</v>
       </c>
       <c r="Q39">
-        <v>116</v>
+        <v>-25.3</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>3479</v>
+        <v>1815.6</v>
       </c>
       <c r="U39">
-        <v>476</v>
+        <v>253</v>
       </c>
       <c r="V39">
-        <v>23</v>
+        <v>29.4</v>
       </c>
       <c r="W39">
-        <v>-99</v>
+        <v>-13.9</v>
       </c>
       <c r="X39">
-        <v>173</v>
+        <v>-18.3</v>
       </c>
       <c r="Y39">
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>-1279</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>2111</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>1641</v>
+        <v>1037.5999999999999</v>
       </c>
       <c r="F40">
-        <v>664</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>4286</v>
+        <v>2400.8000000000002</v>
       </c>
       <c r="H40">
-        <v>14257</v>
+        <v>6564.5</v>
       </c>
       <c r="I40">
-        <v>1157</v>
+        <v>597.20000000000005</v>
       </c>
       <c r="J40">
-        <v>5774</v>
+        <v>2049.3000000000002</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>2917</v>
+        <v>1764.2</v>
       </c>
       <c r="O40">
-        <v>10741</v>
+        <v>4665.6000000000004</v>
       </c>
       <c r="P40">
-        <v>6813</v>
+        <v>2443.3000000000002</v>
       </c>
       <c r="Q40">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>3516</v>
+        <v>1898.9</v>
       </c>
       <c r="U40">
-        <v>619</v>
+        <v>259.8</v>
       </c>
       <c r="V40">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>-98</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>501</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>304</v>
+        <v>28.3</v>
       </c>
       <c r="D41">
-        <v>2699</v>
+        <v>1465.5</v>
       </c>
       <c r="E41">
-        <v>1814</v>
+        <v>1004.9</v>
       </c>
       <c r="F41">
-        <v>914</v>
+        <v>563.4</v>
       </c>
       <c r="G41">
-        <v>4704</v>
+        <v>2325.5</v>
       </c>
       <c r="H41">
-        <v>14720</v>
+        <v>6570.2</v>
       </c>
       <c r="I41">
-        <v>1415</v>
+        <v>553.4</v>
       </c>
       <c r="J41">
-        <v>5788</v>
+        <v>2096.5</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>3108</v>
+        <v>1884.3</v>
       </c>
       <c r="O41">
-        <v>10970</v>
+        <v>4697.3</v>
       </c>
       <c r="P41">
-        <v>6507</v>
+        <v>2558.4</v>
       </c>
       <c r="Q41">
-        <v>231</v>
+        <v>-106.3</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>3750</v>
+        <v>1872.9</v>
       </c>
       <c r="U41">
-        <v>858</v>
+        <v>153.5</v>
       </c>
       <c r="V41">
-        <v>688</v>
+        <v>194.5</v>
       </c>
       <c r="W41">
-        <v>-97</v>
+        <v>-12.8</v>
       </c>
       <c r="X41">
-        <v>-413</v>
+        <v>-267.10000000000002</v>
       </c>
       <c r="Y41">
-        <v>491</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>304</v>
+        <v>28.3</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>75.7</v>
+      </c>
+      <c r="D42">
+        <v>1441.5</v>
+      </c>
+      <c r="E42">
+        <v>997.9</v>
+      </c>
+      <c r="F42">
+        <v>537.6</v>
+      </c>
+      <c r="G42">
+        <v>2132</v>
+      </c>
+      <c r="H42">
+        <v>6405.3</v>
+      </c>
+      <c r="I42">
+        <v>472.5</v>
+      </c>
+      <c r="J42">
+        <v>2063.9</v>
+      </c>
+      <c r="K42">
+        <v>135</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1665.9</v>
+      </c>
+      <c r="O42">
+        <v>4499.8</v>
+      </c>
+      <c r="P42">
+        <v>2368.9</v>
+      </c>
+      <c r="Q42">
+        <v>-13.9</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>19400</v>
+      </c>
+      <c r="T42">
+        <v>1905.5</v>
+      </c>
+      <c r="U42">
+        <v>139.6</v>
+      </c>
+      <c r="V42">
+        <v>204.7</v>
+      </c>
+      <c r="W42">
+        <v>-14.6</v>
+      </c>
+      <c r="X42">
+        <v>-167.7</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>75.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>75.7</v>
+      </c>
+      <c r="D43">
+        <v>1274.2</v>
+      </c>
+      <c r="E43">
+        <v>967.2</v>
+      </c>
+      <c r="F43">
+        <v>484.9</v>
+      </c>
+      <c r="G43">
+        <v>2304.1999999999998</v>
+      </c>
+      <c r="H43">
+        <v>6637.2</v>
+      </c>
+      <c r="I43">
+        <v>548.9</v>
+      </c>
+      <c r="J43">
+        <v>1796.3</v>
+      </c>
+      <c r="K43">
+        <v>325</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-3.6</v>
+      </c>
+      <c r="N43">
+        <v>2005</v>
+      </c>
+      <c r="O43">
+        <v>4598.5</v>
+      </c>
+      <c r="P43">
+        <v>2532.4</v>
+      </c>
+      <c r="Q43">
+        <v>0.1</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>2038.7</v>
+      </c>
+      <c r="U43">
+        <v>139.69999999999999</v>
+      </c>
+      <c r="V43">
+        <v>-108.3</v>
+      </c>
+      <c r="W43">
+        <v>-14.7</v>
+      </c>
+      <c r="X43">
+        <v>167.8</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>75.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>146.69999999999999</v>
+      </c>
+      <c r="D44">
+        <v>1545.3</v>
+      </c>
+      <c r="E44">
+        <v>1139.9000000000001</v>
+      </c>
+      <c r="F44">
+        <v>584.4</v>
+      </c>
+      <c r="G44">
+        <v>2532.1999999999998</v>
+      </c>
+      <c r="H44">
+        <v>6892.5</v>
+      </c>
+      <c r="I44">
+        <v>659.1</v>
+      </c>
+      <c r="J44">
+        <v>1805.5</v>
+      </c>
+      <c r="K44">
+        <v>313.89999999999998</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>2123</v>
+      </c>
+      <c r="O44">
+        <v>4707.8</v>
+      </c>
+      <c r="P44">
+        <v>2528.1999999999998</v>
+      </c>
+      <c r="Q44">
+        <v>3.9</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>2184.6999999999998</v>
+      </c>
+      <c r="U44">
+        <v>143.6</v>
+      </c>
+      <c r="V44">
+        <v>92.8</v>
+      </c>
+      <c r="W44">
+        <v>-23.4</v>
+      </c>
+      <c r="X44">
+        <v>-35.4</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>146.69999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>1549.9</v>
+      </c>
+      <c r="E45">
+        <v>985.9</v>
+      </c>
+      <c r="F45">
+        <v>579.29999999999995</v>
+      </c>
+      <c r="G45">
+        <v>2288.9</v>
+      </c>
+      <c r="H45">
+        <v>6211.8</v>
+      </c>
+      <c r="I45">
+        <v>522.9</v>
+      </c>
+      <c r="J45">
+        <v>1811.3</v>
+      </c>
+      <c r="K45">
+        <v>236.9</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1775.7</v>
+      </c>
+      <c r="O45">
+        <v>4313</v>
+      </c>
+      <c r="P45">
+        <v>2314.6</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>1898.8</v>
+      </c>
+      <c r="U45">
+        <v>138.9</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>-177.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="D46">
+        <v>1495.2</v>
+      </c>
+      <c r="E46">
+        <v>1002</v>
+      </c>
+      <c r="F46">
+        <v>556.6</v>
+      </c>
+      <c r="G46">
+        <v>2148</v>
+      </c>
+      <c r="H46">
+        <v>6160.9</v>
+      </c>
+      <c r="I46">
+        <v>468.5</v>
+      </c>
+      <c r="J46">
+        <v>1809.3</v>
+      </c>
+      <c r="K46">
+        <v>103.6</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1660.9</v>
+      </c>
+      <c r="O46">
+        <v>4308.3</v>
+      </c>
+      <c r="P46">
+        <v>2176.8000000000002</v>
+      </c>
+      <c r="Q46">
+        <v>31.3</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>19900</v>
+      </c>
+      <c r="T46">
+        <v>1852.6</v>
+      </c>
+      <c r="U46">
+        <v>170.2</v>
+      </c>
+      <c r="V46">
+        <v>281.5</v>
+      </c>
+      <c r="W46">
+        <v>-23.3</v>
+      </c>
+      <c r="X46">
+        <v>-182.4</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>80.400000000000006</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>79.3</v>
+      </c>
+      <c r="D47">
+        <v>1250.5</v>
+      </c>
+      <c r="E47">
+        <v>942.2</v>
+      </c>
+      <c r="F47">
+        <v>488</v>
+      </c>
+      <c r="G47">
+        <v>2292</v>
+      </c>
+      <c r="H47">
+        <v>6288.8</v>
+      </c>
+      <c r="I47">
+        <v>527.4</v>
+      </c>
+      <c r="J47">
+        <v>1803.4</v>
+      </c>
+      <c r="K47">
+        <v>496.9</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-250.3</v>
+      </c>
+      <c r="N47">
+        <v>1727.9</v>
+      </c>
+      <c r="O47">
+        <v>4338</v>
+      </c>
+      <c r="P47">
+        <v>2313.1</v>
+      </c>
+      <c r="Q47">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1950.8</v>
+      </c>
+      <c r="U47">
+        <v>190.1</v>
+      </c>
+      <c r="V47">
+        <v>-47.4</v>
+      </c>
+      <c r="W47">
+        <v>-24.2</v>
+      </c>
+      <c r="X47">
+        <v>105.9</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>79.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>111.8</v>
+      </c>
+      <c r="D48">
+        <v>1425.3</v>
+      </c>
+      <c r="E48">
+        <v>1105.7</v>
+      </c>
+      <c r="F48">
+        <v>552.70000000000005</v>
+      </c>
+      <c r="G48">
+        <v>2658.7</v>
+      </c>
+      <c r="H48">
+        <v>6590.8</v>
+      </c>
+      <c r="I48">
+        <v>556.4</v>
+      </c>
+      <c r="J48">
+        <v>1372.4</v>
+      </c>
+      <c r="K48">
+        <v>175.5</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>2448.3000000000002</v>
+      </c>
+      <c r="O48">
+        <v>4616.1000000000004</v>
+      </c>
+      <c r="P48">
+        <v>2494.1999999999998</v>
+      </c>
+      <c r="Q48">
+        <v>180.7</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>1974.7</v>
+      </c>
+      <c r="U48">
+        <v>370.8</v>
+      </c>
+      <c r="V48">
+        <v>103.1</v>
+      </c>
+      <c r="W48">
+        <v>-29.1</v>
+      </c>
+      <c r="X48">
+        <v>121.9</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>111.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>1456.9</v>
+      </c>
+      <c r="E49">
+        <v>1074.3</v>
+      </c>
+      <c r="F49">
+        <v>559</v>
+      </c>
+      <c r="G49">
+        <v>2424.3000000000002</v>
+      </c>
+      <c r="H49">
+        <v>6363.3</v>
+      </c>
+      <c r="I49">
+        <v>530</v>
+      </c>
+      <c r="J49">
+        <v>1366.1</v>
+      </c>
+      <c r="K49">
+        <v>291</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>2146.1999999999998</v>
+      </c>
+      <c r="O49">
+        <v>4296.5</v>
+      </c>
+      <c r="P49">
+        <v>2164.8000000000002</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>2066.8000000000002</v>
+      </c>
+      <c r="U49">
+        <v>250.1</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>108.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>101.9</v>
+      </c>
+      <c r="D50">
+        <v>1447.2</v>
+      </c>
+      <c r="E50">
+        <v>1112.4000000000001</v>
+      </c>
+      <c r="F50">
+        <v>536.4</v>
+      </c>
+      <c r="G50">
+        <v>2271.1</v>
+      </c>
+      <c r="H50">
+        <v>6222</v>
+      </c>
+      <c r="I50">
+        <v>527.4</v>
+      </c>
+      <c r="J50">
+        <v>1713.7</v>
+      </c>
+      <c r="K50">
+        <v>210.7</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1570.8</v>
+      </c>
+      <c r="O50">
+        <v>4221.8</v>
+      </c>
+      <c r="P50">
+        <v>1925.6</v>
+      </c>
+      <c r="Q50">
+        <v>-66.3</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>18300</v>
+      </c>
+      <c r="T50">
+        <v>2000.2</v>
+      </c>
+      <c r="U50">
+        <v>183.8</v>
+      </c>
+      <c r="V50">
+        <v>261.3</v>
+      </c>
+      <c r="W50">
+        <v>-43.5</v>
+      </c>
+      <c r="X50">
+        <v>-304.3</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>101.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>54.2</v>
+      </c>
+      <c r="D51">
+        <v>1240.8</v>
+      </c>
+      <c r="E51">
+        <v>1021.3</v>
+      </c>
+      <c r="F51">
+        <v>473.6</v>
+      </c>
+      <c r="G51">
+        <v>2356.6</v>
+      </c>
+      <c r="H51">
+        <v>6197.2</v>
+      </c>
+      <c r="I51">
+        <v>570.1</v>
+      </c>
+      <c r="J51">
+        <v>1710.4</v>
+      </c>
+      <c r="K51">
+        <v>411.8</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1674.6</v>
+      </c>
+      <c r="O51">
+        <v>4208.6000000000004</v>
+      </c>
+      <c r="P51">
+        <v>2123.4</v>
+      </c>
+      <c r="Q51">
+        <v>-9.6</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>1988.6</v>
+      </c>
+      <c r="U51">
+        <v>174.2</v>
+      </c>
+      <c r="V51">
+        <v>-123.1</v>
+      </c>
+      <c r="W51">
+        <v>-44.5</v>
+      </c>
+      <c r="X51">
+        <v>148.1</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>54.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>109.8</v>
+      </c>
+      <c r="D52">
+        <v>1434.8</v>
+      </c>
+      <c r="E52">
+        <v>1215.3</v>
+      </c>
+      <c r="F52">
+        <v>557.1</v>
+      </c>
+      <c r="G52">
+        <v>2600.1999999999998</v>
+      </c>
+      <c r="H52">
+        <v>6402.9</v>
+      </c>
+      <c r="I52">
+        <v>658.1</v>
+      </c>
+      <c r="J52">
+        <v>1700.4</v>
+      </c>
+      <c r="K52">
+        <v>412.4</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1841.4</v>
+      </c>
+      <c r="O52">
+        <v>4362.3999999999996</v>
+      </c>
+      <c r="P52">
+        <v>2113.6</v>
+      </c>
+      <c r="Q52">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>2040.5</v>
+      </c>
+      <c r="U52">
+        <v>154.1</v>
+      </c>
+      <c r="V52">
+        <v>63.3</v>
+      </c>
+      <c r="W52">
+        <v>-43.6</v>
+      </c>
+      <c r="X52">
+        <v>-57.6</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>109.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>193.3</v>
+      </c>
+      <c r="D53">
+        <v>1466.1</v>
+      </c>
+      <c r="E53">
+        <v>408.7</v>
+      </c>
+      <c r="F53">
+        <v>552.5</v>
+      </c>
+      <c r="G53">
+        <v>2384.1999999999998</v>
+      </c>
+      <c r="H53">
+        <v>6152.9</v>
+      </c>
+      <c r="I53">
+        <v>575.1</v>
+      </c>
+      <c r="J53">
+        <v>1700.3</v>
+      </c>
+      <c r="K53">
+        <v>29.2</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1442.8</v>
+      </c>
+      <c r="O53">
+        <v>3959.8</v>
+      </c>
+      <c r="P53">
+        <v>1730.4</v>
+      </c>
+      <c r="Q53">
+        <v>43.3</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>2193.1</v>
+      </c>
+      <c r="U53">
+        <v>197.4</v>
+      </c>
+      <c r="V53">
+        <v>360.8</v>
+      </c>
+      <c r="W53">
+        <v>-44</v>
+      </c>
+      <c r="X53">
+        <v>-472.7</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>193.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>117.3</v>
+      </c>
+      <c r="D54">
+        <v>1465.3</v>
+      </c>
+      <c r="E54">
+        <v>1105.0999999999999</v>
+      </c>
+      <c r="F54">
+        <v>541.70000000000005</v>
+      </c>
+      <c r="G54">
+        <v>2285.6</v>
+      </c>
+      <c r="H54">
+        <v>6069.7</v>
+      </c>
+      <c r="I54">
+        <v>558.9</v>
+      </c>
+      <c r="J54">
+        <v>1697.1</v>
+      </c>
+      <c r="K54">
+        <v>174</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1604.5</v>
+      </c>
+      <c r="O54">
+        <v>3994.7</v>
+      </c>
+      <c r="P54">
+        <v>1871.9</v>
+      </c>
+      <c r="Q54">
+        <v>28.9</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>18300</v>
+      </c>
+      <c r="T54">
+        <v>2075</v>
+      </c>
+      <c r="U54">
+        <v>226.3</v>
+      </c>
+      <c r="V54">
+        <v>304.2</v>
+      </c>
+      <c r="W54">
+        <v>-42</v>
+      </c>
+      <c r="X54">
+        <v>-231.3</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>117.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>52.9</v>
+      </c>
+      <c r="D55">
+        <v>1214.3</v>
+      </c>
+      <c r="E55">
+        <v>973.1</v>
+      </c>
+      <c r="F55">
+        <v>457</v>
+      </c>
+      <c r="G55">
+        <v>2231.3000000000002</v>
+      </c>
+      <c r="H55">
+        <v>5993.9</v>
+      </c>
+      <c r="I55">
+        <v>542.79999999999995</v>
+      </c>
+      <c r="J55">
+        <v>1696.1</v>
+      </c>
+      <c r="K55">
+        <v>318.7</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1552.8</v>
+      </c>
+      <c r="O55">
+        <v>3920.4</v>
+      </c>
+      <c r="P55">
+        <v>2015.6</v>
+      </c>
+      <c r="Q55">
+        <v>-89.5</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>2073.5</v>
+      </c>
+      <c r="U55">
+        <v>136.80000000000001</v>
+      </c>
+      <c r="V55">
+        <v>-92.1</v>
+      </c>
+      <c r="W55">
+        <v>-42.9</v>
+      </c>
+      <c r="X55">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>52.9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>150.6</v>
+      </c>
+      <c r="D56">
+        <v>1502.2</v>
+      </c>
+      <c r="E56">
+        <v>437.8</v>
+      </c>
+      <c r="F56">
+        <v>599.79999999999995</v>
+      </c>
+      <c r="G56">
+        <v>2458.6</v>
+      </c>
+      <c r="H56">
+        <v>6218.1</v>
+      </c>
+      <c r="I56">
+        <v>592.9</v>
+      </c>
+      <c r="J56">
+        <v>1445.8</v>
+      </c>
+      <c r="K56">
+        <v>389.4</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1986.4</v>
+      </c>
+      <c r="O56">
+        <v>4114.5</v>
+      </c>
+      <c r="P56">
+        <v>2086.5</v>
+      </c>
+      <c r="Q56">
+        <v>5.9</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>2103.6</v>
+      </c>
+      <c r="U56">
+        <v>142.69999999999999</v>
+      </c>
+      <c r="V56">
+        <v>96.2</v>
+      </c>
+      <c r="W56">
+        <v>-46.9</v>
+      </c>
+      <c r="X56">
+        <v>-70.599999999999994</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>150.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>122.3</v>
+      </c>
+      <c r="D57">
+        <v>1484.5</v>
+      </c>
+      <c r="E57">
+        <v>433.4</v>
+      </c>
+      <c r="F57">
+        <v>577.79999999999995</v>
+      </c>
+      <c r="G57">
+        <v>2377.4</v>
+      </c>
+      <c r="H57">
+        <v>6349.2</v>
+      </c>
+      <c r="I57">
+        <v>579.1</v>
+      </c>
+      <c r="J57">
+        <v>1441.9</v>
+      </c>
+      <c r="K57">
+        <v>517</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>2188.6999999999998</v>
+      </c>
+      <c r="O57">
+        <v>4320.2</v>
+      </c>
+      <c r="P57">
+        <v>2210</v>
+      </c>
+      <c r="Q57">
+        <v>-10.1</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>2029</v>
+      </c>
+      <c r="U57">
+        <v>132.6</v>
+      </c>
+      <c r="V57">
+        <v>339.2</v>
+      </c>
+      <c r="W57">
+        <v>-46.3</v>
+      </c>
+      <c r="X57">
+        <v>-6.3</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>122.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>52</v>
+      </c>
+      <c r="D58">
+        <v>1526</v>
+      </c>
+      <c r="E58">
+        <v>1248.2</v>
+      </c>
+      <c r="F58">
+        <v>569</v>
+      </c>
+      <c r="G58">
+        <v>2292.1999999999998</v>
+      </c>
+      <c r="H58">
+        <v>6564.3</v>
+      </c>
+      <c r="I58">
+        <v>674.1</v>
+      </c>
+      <c r="J58">
+        <v>2096.3000000000002</v>
+      </c>
+      <c r="K58">
+        <v>390.7</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1888.6</v>
+      </c>
+      <c r="O58">
+        <v>4709.3999999999996</v>
+      </c>
+      <c r="P58">
+        <v>2493.6999999999998</v>
+      </c>
+      <c r="Q58">
+        <v>66.8</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>17400</v>
+      </c>
+      <c r="T58">
+        <v>1854.9</v>
+      </c>
+      <c r="U58">
+        <v>199.4</v>
+      </c>
+      <c r="V58">
+        <v>290.8</v>
+      </c>
+      <c r="W58">
+        <v>-46.4</v>
+      </c>
+      <c r="X58">
+        <v>122</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>54.1</v>
+      </c>
+      <c r="D59">
+        <v>1264</v>
+      </c>
+      <c r="E59">
+        <v>367.6</v>
+      </c>
+      <c r="F59">
+        <v>489.3</v>
+      </c>
+      <c r="G59">
+        <v>2423</v>
+      </c>
+      <c r="H59">
+        <v>6604.6</v>
+      </c>
+      <c r="I59">
+        <v>615.6</v>
+      </c>
+      <c r="J59">
+        <v>2099.3000000000002</v>
+      </c>
+      <c r="K59">
+        <v>733.9</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>2044.2</v>
+      </c>
+      <c r="O59">
+        <v>4905.6000000000004</v>
+      </c>
+      <c r="P59">
+        <v>2839.7</v>
+      </c>
+      <c r="Q59">
+        <v>16</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>1699</v>
+      </c>
+      <c r="U59">
+        <v>215.4</v>
+      </c>
+      <c r="V59">
+        <v>-154.30000000000001</v>
+      </c>
+      <c r="W59">
+        <v>-53.2</v>
+      </c>
+      <c r="X59">
+        <v>218.2</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>148.5</v>
+      </c>
+      <c r="D60">
+        <v>1560.9</v>
+      </c>
+      <c r="E60">
+        <v>462.6</v>
+      </c>
+      <c r="F60">
+        <v>624.29999999999995</v>
+      </c>
+      <c r="G60">
+        <v>2753</v>
+      </c>
+      <c r="H60">
+        <v>6958.8</v>
+      </c>
+      <c r="I60">
+        <v>756.7</v>
+      </c>
+      <c r="J60">
+        <v>2098.3000000000002</v>
+      </c>
+      <c r="K60">
+        <v>776.6</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>2306.5</v>
+      </c>
+      <c r="O60">
+        <v>5175.7</v>
+      </c>
+      <c r="P60">
+        <v>2880.9</v>
+      </c>
+      <c r="Q60">
+        <v>23.3</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>1783.1</v>
+      </c>
+      <c r="U60">
+        <v>238.7</v>
+      </c>
+      <c r="V60">
+        <v>102.5</v>
+      </c>
+      <c r="W60">
+        <v>-51.2</v>
+      </c>
+      <c r="X60">
+        <v>-55.6</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>148.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>134.19999999999999</v>
+      </c>
+      <c r="D61">
+        <v>1530</v>
+      </c>
+      <c r="E61">
+        <v>426</v>
+      </c>
+      <c r="F61">
+        <v>600.29999999999995</v>
+      </c>
+      <c r="G61">
+        <v>2586.4</v>
+      </c>
+      <c r="H61">
+        <v>6793.9</v>
+      </c>
+      <c r="I61">
+        <v>679.3</v>
+      </c>
+      <c r="J61">
+        <v>2103.3000000000002</v>
+      </c>
+      <c r="K61">
+        <v>631.4</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>2141.1999999999998</v>
+      </c>
+      <c r="O61">
+        <v>5005.6000000000004</v>
+      </c>
+      <c r="P61">
+        <v>2740.7</v>
+      </c>
+      <c r="Q61">
+        <v>27.5</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>1788.3</v>
+      </c>
+      <c r="U61">
+        <v>266.2</v>
+      </c>
+      <c r="V61">
+        <v>339.9</v>
+      </c>
+      <c r="W61">
+        <v>-51</v>
+      </c>
+      <c r="X61">
+        <v>-232.2</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>134.19999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>1250.7</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>2493.5</v>
+      </c>
+      <c r="H62">
+        <v>7259.5</v>
+      </c>
+      <c r="I62">
+        <v>642.4</v>
+      </c>
+      <c r="J62">
+        <v>2677.7</v>
+      </c>
+      <c r="K62">
+        <v>388.8</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1988.6</v>
+      </c>
+      <c r="O62">
+        <v>5433.1</v>
+      </c>
+      <c r="P62">
+        <v>3066.5</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>17200</v>
+      </c>
+      <c r="T62">
+        <v>1826.4</v>
+      </c>
+      <c r="U62">
+        <v>274.8</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>40.5</v>
+      </c>
+      <c r="D63">
+        <v>1314.9</v>
+      </c>
+      <c r="E63">
+        <v>391.7</v>
+      </c>
+      <c r="F63">
+        <v>505.6</v>
+      </c>
+      <c r="G63">
+        <v>10488.9</v>
+      </c>
+      <c r="H63">
+        <v>15332.8</v>
+      </c>
+      <c r="I63">
+        <v>657.1</v>
+      </c>
+      <c r="J63">
+        <v>10619.4</v>
+      </c>
+      <c r="K63">
+        <v>762.8</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>2194.9</v>
+      </c>
+      <c r="O63">
+        <v>13554.1</v>
+      </c>
+      <c r="P63">
+        <v>11388.1</v>
+      </c>
+      <c r="Q63">
+        <v>7906.1</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>1778.7</v>
+      </c>
+      <c r="U63">
+        <v>8180.9</v>
+      </c>
+      <c r="V63">
+        <v>-261.39999999999998</v>
+      </c>
+      <c r="W63">
+        <v>-53.3</v>
+      </c>
+      <c r="X63">
+        <v>8238.6</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>135.19999999999999</v>
+      </c>
+      <c r="D64">
+        <v>3858.6</v>
+      </c>
+      <c r="E64">
+        <v>1118.9000000000001</v>
+      </c>
+      <c r="F64">
+        <v>1423.7</v>
+      </c>
+      <c r="G64">
+        <v>6819.2</v>
+      </c>
+      <c r="H64">
+        <v>33955.300000000003</v>
+      </c>
+      <c r="I64">
+        <v>1566.8</v>
+      </c>
+      <c r="J64">
+        <v>12071.6</v>
+      </c>
+      <c r="K64">
+        <v>943</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>4185</v>
+      </c>
+      <c r="O64">
+        <v>22612.2</v>
+      </c>
+      <c r="P64">
+        <v>13014.6</v>
+      </c>
+      <c r="Q64">
+        <v>-7553.6</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>11343.1</v>
+      </c>
+      <c r="U64">
+        <v>627.29999999999995</v>
+      </c>
+      <c r="V64">
+        <v>597.29999999999995</v>
+      </c>
+      <c r="W64">
+        <v>-91.7</v>
+      </c>
+      <c r="X64">
+        <v>310.3</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>135.19999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>186.5</v>
+      </c>
+      <c r="D65">
+        <v>3954.6</v>
+      </c>
+      <c r="E65">
+        <v>956.7</v>
+      </c>
+      <c r="F65">
+        <v>1419.8</v>
+      </c>
+      <c r="G65">
+        <v>7880.5</v>
+      </c>
+      <c r="H65">
+        <v>34415.5</v>
+      </c>
+      <c r="I65">
+        <v>1433.8</v>
+      </c>
+      <c r="J65">
+        <v>12075.3</v>
+      </c>
+      <c r="K65">
+        <v>704.5</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>4066.5</v>
+      </c>
+      <c r="O65">
+        <v>22953.200000000001</v>
+      </c>
+      <c r="P65">
+        <v>12779.8</v>
+      </c>
+      <c r="Q65">
+        <v>42.7</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>11462.3</v>
+      </c>
+      <c r="U65">
+        <v>670</v>
+      </c>
+      <c r="V65">
+        <v>512.79999999999995</v>
+      </c>
+      <c r="W65">
+        <v>-91.9</v>
+      </c>
+      <c r="X65">
+        <v>-317.5</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>186.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>165.6</v>
+      </c>
+      <c r="D66">
+        <v>4135.8999999999996</v>
+      </c>
+      <c r="E66">
+        <v>2746.9</v>
+      </c>
+      <c r="F66">
+        <v>1531.7</v>
+      </c>
+      <c r="G66">
+        <v>7484.5</v>
+      </c>
+      <c r="H66">
+        <v>33837.5</v>
+      </c>
+      <c r="I66">
+        <v>1518.9</v>
+      </c>
+      <c r="J66">
+        <v>11290.9</v>
+      </c>
+      <c r="K66">
+        <v>601.9</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>4292</v>
+      </c>
+      <c r="O66">
+        <v>22453.1</v>
+      </c>
+      <c r="P66">
+        <v>11892.8</v>
+      </c>
+      <c r="Q66">
+        <v>-82.5</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>53400</v>
+      </c>
+      <c r="T66">
+        <v>11384.4</v>
+      </c>
+      <c r="U66">
+        <v>587.5</v>
+      </c>
+      <c r="V66">
+        <v>991.7</v>
+      </c>
+      <c r="W66">
+        <v>-91.7</v>
+      </c>
+      <c r="X66">
+        <v>-902.9</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>165.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>638.5</v>
+      </c>
+      <c r="D67">
+        <v>2090.6</v>
+      </c>
+      <c r="E67">
+        <v>2559.6</v>
+      </c>
+      <c r="F67">
+        <v>708.2</v>
+      </c>
+      <c r="G67">
+        <v>6488.7</v>
+      </c>
+      <c r="H67">
+        <v>33335.300000000003</v>
+      </c>
+      <c r="I67">
+        <v>1396.9</v>
+      </c>
+      <c r="J67">
+        <v>10357.5</v>
+      </c>
+      <c r="K67">
+        <v>852.5</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-972.3</v>
+      </c>
+      <c r="N67">
+        <v>4318.2</v>
+      </c>
+      <c r="O67">
+        <v>21305.5</v>
+      </c>
+      <c r="P67">
+        <v>11210</v>
+      </c>
+      <c r="Q67">
+        <v>100</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>12029.8</v>
+      </c>
+      <c r="U67">
+        <v>687.5</v>
+      </c>
+      <c r="V67">
+        <v>-263.60000000000002</v>
+      </c>
+      <c r="W67">
+        <v>-92.9</v>
+      </c>
+      <c r="X67">
+        <v>-859.6</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>638.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>2988.7</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>7130.9</v>
+      </c>
+      <c r="H68">
+        <v>33950</v>
+      </c>
+      <c r="I68">
+        <v>1719</v>
+      </c>
+      <c r="J68">
+        <v>10172.799999999999</v>
+      </c>
+      <c r="K68">
+        <v>1221</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>4791.3</v>
+      </c>
+      <c r="O68">
+        <v>21671.8</v>
+      </c>
+      <c r="P68">
+        <v>11393.8</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>12278.2</v>
+      </c>
+      <c r="U68">
+        <v>780.2</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>234.4</v>
+      </c>
+      <c r="D69">
+        <v>2466.6</v>
+      </c>
+      <c r="E69">
+        <v>2916</v>
+      </c>
+      <c r="F69">
+        <v>864.9</v>
+      </c>
+      <c r="G69">
+        <v>6949.3</v>
+      </c>
+      <c r="H69">
+        <v>33888</v>
+      </c>
+      <c r="I69">
+        <v>1699</v>
+      </c>
+      <c r="J69">
+        <v>10184.4</v>
+      </c>
+      <c r="K69">
+        <v>1291</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>4774.2</v>
+      </c>
+      <c r="O69">
+        <v>21118</v>
+      </c>
+      <c r="P69">
+        <v>11475.4</v>
+      </c>
+      <c r="Q69">
+        <v>12.1</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>12770</v>
+      </c>
+      <c r="U69">
+        <v>792.3</v>
+      </c>
+      <c r="V69">
+        <v>183</v>
+      </c>
+      <c r="W69">
+        <v>-112.8</v>
+      </c>
+      <c r="X69">
+        <v>-208.2</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>234.4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>1652.9</v>
+      </c>
+      <c r="D70">
+        <v>2489.1999999999998</v>
+      </c>
+      <c r="E70">
+        <v>1879.3</v>
+      </c>
+      <c r="F70">
+        <v>813.8</v>
+      </c>
+      <c r="G70">
+        <v>10725.7</v>
+      </c>
+      <c r="H70">
+        <v>33135.5</v>
+      </c>
+      <c r="I70">
+        <v>1226.8</v>
+      </c>
+      <c r="J70">
+        <v>9889.2000000000007</v>
+      </c>
+      <c r="K70">
+        <v>661.8</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>4907.7</v>
+      </c>
+      <c r="O70">
+        <v>18954.2</v>
+      </c>
+      <c r="P70">
+        <v>10551</v>
+      </c>
+      <c r="Q70">
+        <v>-306.60000000000002</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>49000</v>
+      </c>
+      <c r="T70">
+        <v>14181.3</v>
+      </c>
+      <c r="U70">
+        <v>485.7</v>
+      </c>
+      <c r="V70">
+        <v>990</v>
+      </c>
+      <c r="W70">
+        <v>-111.5</v>
+      </c>
+      <c r="X70">
+        <v>-1189.9000000000001</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>1652.9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>53.3</v>
+      </c>
+      <c r="D71">
+        <v>1811.5</v>
+      </c>
+      <c r="E71">
+        <v>2346</v>
+      </c>
+      <c r="F71">
+        <v>605.29999999999995</v>
+      </c>
+      <c r="G71">
+        <v>8471.2999999999993</v>
+      </c>
+      <c r="H71">
+        <v>33469.4</v>
+      </c>
+      <c r="I71">
+        <v>1398.2</v>
+      </c>
+      <c r="J71">
+        <v>9623.5</v>
+      </c>
+      <c r="K71">
+        <v>1532.6</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-0.7</v>
+      </c>
+      <c r="N71">
+        <v>4917.8999999999996</v>
+      </c>
+      <c r="O71">
+        <v>19302.099999999999</v>
+      </c>
+      <c r="P71">
+        <v>11156.1</v>
+      </c>
+      <c r="Q71">
+        <v>-26.7</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>14167.3</v>
+      </c>
+      <c r="U71">
+        <v>459</v>
+      </c>
+      <c r="V71">
+        <v>-401.7</v>
+      </c>
+      <c r="W71">
+        <v>-112.6</v>
+      </c>
+      <c r="X71">
+        <v>474.7</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>131.69999999999999</v>
+      </c>
+      <c r="D72">
+        <v>2700.9</v>
+      </c>
+      <c r="E72">
+        <v>1928.7</v>
+      </c>
+      <c r="F72">
+        <v>934.6</v>
+      </c>
+      <c r="G72">
+        <v>13747.4</v>
+      </c>
+      <c r="H72">
+        <v>32191.200000000001</v>
+      </c>
+      <c r="I72">
+        <v>1017.3</v>
+      </c>
+      <c r="J72">
+        <v>9300.7000000000007</v>
+      </c>
+      <c r="K72">
+        <v>1202.2</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>4342.8999999999996</v>
+      </c>
+      <c r="O72">
+        <v>18200</v>
+      </c>
+      <c r="P72">
+        <v>10502.9</v>
+      </c>
+      <c r="Q72">
+        <v>1820.4</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>13991.2</v>
+      </c>
+      <c r="U72">
+        <v>2279.4</v>
+      </c>
+      <c r="V72">
+        <v>11.2</v>
+      </c>
+      <c r="W72">
+        <v>-112.3</v>
+      </c>
+      <c r="X72">
+        <v>-737.6</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>131.69999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>-7311</v>
+      </c>
+      <c r="D73">
+        <v>2548.6999999999998</v>
+      </c>
+      <c r="E73">
+        <v>2015.4</v>
+      </c>
+      <c r="F73">
+        <v>915.4</v>
+      </c>
+      <c r="G73">
+        <v>12208.5</v>
+      </c>
+      <c r="H73">
+        <v>22398.1</v>
+      </c>
+      <c r="I73">
+        <v>1172</v>
+      </c>
+      <c r="J73">
+        <v>9296.7999999999993</v>
+      </c>
+      <c r="K73">
+        <v>316.3</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>4096.7</v>
+      </c>
+      <c r="O73">
+        <v>16371.9</v>
+      </c>
+      <c r="P73">
+        <v>9613.1</v>
+      </c>
+      <c r="Q73">
+        <v>-835.8</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>6026.2</v>
+      </c>
+      <c r="U73">
+        <v>1443.6</v>
+      </c>
+      <c r="V73">
+        <v>572.1</v>
+      </c>
+      <c r="W73">
+        <v>-107.4</v>
+      </c>
+      <c r="X73">
+        <v>-1505.1</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>-7311</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>183.5</v>
+      </c>
+      <c r="D74">
+        <v>3092.9</v>
+      </c>
+      <c r="E74">
+        <v>2163.5</v>
+      </c>
+      <c r="F74">
+        <v>1062.4000000000001</v>
+      </c>
+      <c r="G74">
+        <v>5958.5</v>
+      </c>
+      <c r="H74">
+        <v>17722.400000000001</v>
+      </c>
+      <c r="I74">
+        <v>1191.5999999999999</v>
+      </c>
+      <c r="J74">
+        <v>6696.3</v>
+      </c>
+      <c r="K74">
+        <v>318.7</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>3303.5</v>
+      </c>
+      <c r="O74">
+        <v>12469.2</v>
+      </c>
+      <c r="P74">
+        <v>7015</v>
+      </c>
+      <c r="Q74">
+        <v>-947.9</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>37000</v>
+      </c>
+      <c r="T74">
+        <v>5253.2</v>
+      </c>
+      <c r="U74">
+        <v>495.7</v>
+      </c>
+      <c r="V74">
+        <v>498.4</v>
+      </c>
+      <c r="W74">
+        <v>-102.3</v>
+      </c>
+      <c r="X74">
+        <v>-3686.5</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>183.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>-151</v>
+      </c>
+      <c r="D75">
+        <v>2042</v>
+      </c>
+      <c r="E75">
+        <v>1606.1</v>
+      </c>
+      <c r="F75">
+        <v>655</v>
+      </c>
+      <c r="G75">
+        <v>7516.1</v>
+      </c>
+      <c r="H75">
+        <v>18106.099999999999</v>
+      </c>
+      <c r="I75">
+        <v>934.9</v>
+      </c>
+      <c r="J75">
+        <v>6682.7</v>
+      </c>
+      <c r="K75">
+        <v>570.20000000000005</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-273</v>
+      </c>
+      <c r="N75">
+        <v>3551.6</v>
+      </c>
+      <c r="O75">
+        <v>13123</v>
+      </c>
+      <c r="P75">
+        <v>7953.6</v>
+      </c>
+      <c r="Q75">
+        <v>-132</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>4983.1000000000004</v>
+      </c>
+      <c r="U75">
+        <v>364.1</v>
+      </c>
+      <c r="V75">
+        <v>-200</v>
+      </c>
+      <c r="W75">
+        <v>-98</v>
+      </c>
+      <c r="X75">
+        <v>145</v>
+      </c>
+      <c r="Y75">
+        <v>559.5</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>-151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>90</v>
+      </c>
+      <c r="D76">
+        <v>2480</v>
+      </c>
+      <c r="E76">
+        <v>1769</v>
+      </c>
+      <c r="F76">
+        <v>865</v>
+      </c>
+      <c r="G76">
+        <v>7061.7</v>
+      </c>
+      <c r="H76">
+        <v>17666.3</v>
+      </c>
+      <c r="I76">
+        <v>1083.8</v>
+      </c>
+      <c r="J76">
+        <v>6696.4</v>
+      </c>
+      <c r="K76">
+        <v>39.9</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>3135.8</v>
+      </c>
+      <c r="O76">
+        <v>12661.7</v>
+      </c>
+      <c r="P76">
+        <v>7452.2</v>
+      </c>
+      <c r="Q76">
+        <v>261</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>5004.6000000000004</v>
+      </c>
+      <c r="U76">
+        <v>624.5</v>
+      </c>
+      <c r="V76">
+        <v>191</v>
+      </c>
+      <c r="W76">
+        <v>-97</v>
+      </c>
+      <c r="X76">
+        <v>-631</v>
+      </c>
+      <c r="Y76">
+        <v>584.1</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>-626</v>
+      </c>
+      <c r="D77">
+        <v>2569</v>
+      </c>
+      <c r="E77">
+        <v>1872.8</v>
+      </c>
+      <c r="F77">
+        <v>847</v>
+      </c>
+      <c r="G77">
+        <v>5468.4</v>
+      </c>
+      <c r="H77">
+        <v>16010.2</v>
+      </c>
+      <c r="I77">
+        <v>1118.5</v>
+      </c>
+      <c r="J77">
+        <v>5681.3</v>
+      </c>
+      <c r="K77">
+        <v>630.4</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>3684.2</v>
+      </c>
+      <c r="O77">
+        <v>11841.7</v>
+      </c>
+      <c r="P77">
+        <v>7012.9</v>
+      </c>
+      <c r="Q77">
+        <v>-159</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>4168.5</v>
+      </c>
+      <c r="U77">
+        <v>465.4</v>
+      </c>
+      <c r="V77">
+        <v>433</v>
+      </c>
+      <c r="W77">
+        <v>-98</v>
+      </c>
+      <c r="X77">
+        <v>-538</v>
+      </c>
+      <c r="Y77">
+        <v>565.70000000000005</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>-626</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>794</v>
+      </c>
+      <c r="D78">
+        <v>2624</v>
+      </c>
+      <c r="E78">
+        <v>1842</v>
+      </c>
+      <c r="F78">
+        <v>868</v>
+      </c>
+      <c r="G78">
+        <v>4110</v>
+      </c>
+      <c r="H78">
+        <v>15642</v>
+      </c>
+      <c r="I78">
+        <v>1102</v>
+      </c>
+      <c r="J78">
+        <v>5381</v>
+      </c>
+      <c r="K78">
+        <v>25</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2978</v>
+      </c>
+      <c r="O78">
+        <v>10646</v>
+      </c>
+      <c r="P78">
+        <v>6397</v>
+      </c>
+      <c r="Q78">
+        <v>-95</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>30000</v>
+      </c>
+      <c r="T78">
+        <v>4996</v>
+      </c>
+      <c r="U78">
+        <v>349</v>
+      </c>
+      <c r="V78">
+        <v>620</v>
+      </c>
+      <c r="W78">
+        <v>-98</v>
+      </c>
+      <c r="X78">
+        <v>-880</v>
+      </c>
+      <c r="Y78">
+        <v>551</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>-1279</v>
+      </c>
+      <c r="D79">
+        <v>1886</v>
+      </c>
+      <c r="E79">
+        <v>1398</v>
+      </c>
+      <c r="F79">
+        <v>617</v>
+      </c>
+      <c r="G79">
+        <v>3917</v>
+      </c>
+      <c r="H79">
+        <v>13903</v>
+      </c>
+      <c r="I79">
+        <v>1036</v>
+      </c>
+      <c r="J79">
+        <v>5366</v>
+      </c>
+      <c r="K79">
+        <v>40</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-16</v>
+      </c>
+      <c r="N79">
+        <v>2951</v>
+      </c>
+      <c r="O79">
+        <v>10424</v>
+      </c>
+      <c r="P79">
+        <v>6643</v>
+      </c>
+      <c r="Q79">
+        <v>116</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>3479</v>
+      </c>
+      <c r="U79">
+        <v>476</v>
+      </c>
+      <c r="V79">
+        <v>23</v>
+      </c>
+      <c r="W79">
+        <v>-99</v>
+      </c>
+      <c r="X79">
+        <v>173</v>
+      </c>
+      <c r="Y79">
+        <v>512</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>-1279</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>78</v>
+      </c>
+      <c r="D80">
+        <v>2111</v>
+      </c>
+      <c r="E80">
+        <v>1641</v>
+      </c>
+      <c r="F80">
+        <v>664</v>
+      </c>
+      <c r="G80">
+        <v>4286</v>
+      </c>
+      <c r="H80">
+        <v>14257</v>
+      </c>
+      <c r="I80">
+        <v>1157</v>
+      </c>
+      <c r="J80">
+        <v>5774</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>2917</v>
+      </c>
+      <c r="O80">
+        <v>10741</v>
+      </c>
+      <c r="P80">
+        <v>6813</v>
+      </c>
+      <c r="Q80">
+        <v>147</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>3516</v>
+      </c>
+      <c r="U80">
+        <v>619</v>
+      </c>
+      <c r="V80">
+        <v>109</v>
+      </c>
+      <c r="W80">
+        <v>-98</v>
+      </c>
+      <c r="X80">
+        <v>66</v>
+      </c>
+      <c r="Y80">
+        <v>501</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>304</v>
+      </c>
+      <c r="D81">
+        <v>2699</v>
+      </c>
+      <c r="E81">
+        <v>1814</v>
+      </c>
+      <c r="F81">
+        <v>914</v>
+      </c>
+      <c r="G81">
+        <v>4704</v>
+      </c>
+      <c r="H81">
+        <v>14720</v>
+      </c>
+      <c r="I81">
+        <v>1415</v>
+      </c>
+      <c r="J81">
+        <v>5788</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>3108</v>
+      </c>
+      <c r="O81">
+        <v>10970</v>
+      </c>
+      <c r="P81">
+        <v>6507</v>
+      </c>
+      <c r="Q81">
+        <v>231</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>3750</v>
+      </c>
+      <c r="U81">
+        <v>858</v>
+      </c>
+      <c r="V81">
+        <v>688</v>
+      </c>
+      <c r="W81">
+        <v>-97</v>
+      </c>
+      <c r="X81">
+        <v>-413</v>
+      </c>
+      <c r="Y81">
+        <v>491</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>127</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>2689</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>1678</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>888</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>4628</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>14700</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>1526</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>5238</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>3621</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>10800</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>6310</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>156</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>31000</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>3900</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>981</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>612</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-98</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-385</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>477</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>127</v>
       </c>
     </row>
